--- a/data/Supplementary Tables.xlsx
+++ b/data/Supplementary Tables.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12702\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ziyi Ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4CE8D0-B87D-4C76-AF0B-503CF3C7A030}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860553DC-15EC-40E6-A2FE-E0D8CE0F644D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8775" yWindow="270" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="360" windowWidth="21600" windowHeight="12405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lexical decision task" sheetId="1" r:id="rId1"/>
-    <sheet name="Relatedness judgment task" sheetId="2" r:id="rId2"/>
+    <sheet name="Supplementary Tab. 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Supplementary Tab. 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Supplementary Tab. 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="49">
   <si>
     <t>Variables</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,14 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Supplementary Table 1. Partial Correlations between Lexical Decision Tasks and Word Indicators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supplementary Table 2. Correlation Coefficients for Relatedness judgment Tasks and Semantic Similarity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Correlations</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,14 +248,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Supplementary Table 3. Correlation Coefficients for Relatedness judgment Tasks and Random Walk Semantic Similarity in Different Numbers of Participants</t>
+    <t>&lt; .001</t>
+  </si>
+  <si>
+    <t>4756</t>
+  </si>
+  <si>
+    <t>4756</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt; .001</t>
+    <t>2274</t>
   </si>
   <si>
-    <t>3320</t>
+    <t>2274</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>347</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplementary Tab. 1 Partial Correlations between Lexical Decision Tasks and Word Indicators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplementary Tab. 2 Correlation Coefficients for Relatedness judgment Tasks and Semantic Similarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplementary Tab. 3 Correlation Coefficients for Relatedness judgment Tasks and Random Walk Semantic Similarity in Different Numbers of Participants</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,9 +295,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -326,7 +361,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -609,15 +644,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -663,20 +696,20 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
-        <v>4546</v>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E3" s="3">
-        <v>-0.51500000000000001</v>
+        <v>-0.51600000000000001</v>
       </c>
       <c r="F3" s="3">
-        <v>-0.53500000000000003</v>
+        <v>-0.53600000000000003</v>
       </c>
       <c r="G3" s="3">
-        <v>-0.495</v>
+        <v>-0.497</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -689,20 +722,20 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
-        <v>4546</v>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.51700000000000002</v>
+        <v>-0.52</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.54</v>
+        <v>-0.54100000000000004</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.495</v>
+        <v>-0.498</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -715,20 +748,20 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
-        <v>4546</v>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="3">
-        <v>-0.52100000000000002</v>
+        <v>-0.52600000000000002</v>
       </c>
       <c r="F5" s="3">
-        <v>-0.54400000000000004</v>
+        <v>-0.54600000000000004</v>
       </c>
       <c r="G5" s="3">
-        <v>-0.499</v>
+        <v>-0.504</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -741,20 +774,20 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1">
-        <v>4546</v>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E6" s="3">
-        <v>-0.45600000000000002</v>
+        <v>-0.46800000000000003</v>
       </c>
       <c r="F6" s="3">
-        <v>-0.47599999999999998</v>
+        <v>-0.49</v>
       </c>
       <c r="G6" s="3">
-        <v>-0.434</v>
+        <v>-0.44700000000000001</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -767,20 +800,20 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
-        <v>4546</v>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.46300000000000002</v>
+        <v>-0.47499999999999998</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.48399999999999999</v>
+        <v>-0.495</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.441</v>
+        <v>-0.45400000000000001</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -793,20 +826,20 @@
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1">
-        <v>4546</v>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="3">
-        <v>-0.38500000000000001</v>
+        <v>-0.378</v>
       </c>
       <c r="F8" s="3">
-        <v>-0.41</v>
+        <v>-0.40100000000000002</v>
       </c>
       <c r="G8" s="3">
-        <v>-0.36099999999999999</v>
+        <v>-0.35299999999999998</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -819,20 +852,20 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1">
-        <v>4546</v>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E9" s="3">
-        <v>-0.38800000000000001</v>
+        <v>-0.38300000000000001</v>
       </c>
       <c r="F9" s="3">
-        <v>-0.41399999999999998</v>
+        <v>-0.40899999999999997</v>
       </c>
       <c r="G9" s="3">
-        <v>-0.36199999999999999</v>
+        <v>-0.35799999999999998</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -845,20 +878,20 @@
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1">
-        <v>4546</v>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E10" s="3">
-        <v>-0.39300000000000002</v>
+        <v>-0.39</v>
       </c>
       <c r="F10" s="3">
-        <v>-0.41899999999999998</v>
+        <v>-0.41699999999999998</v>
       </c>
       <c r="G10" s="3">
-        <v>-0.36699999999999999</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -871,20 +904,20 @@
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1">
-        <v>4546</v>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="3">
-        <v>-0.23899999999999999</v>
+        <v>-0.246</v>
       </c>
       <c r="F11" s="3">
-        <v>-0.26600000000000001</v>
+        <v>-0.27300000000000002</v>
       </c>
       <c r="G11" s="3">
-        <v>-0.21299999999999999</v>
+        <v>-0.222</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -897,20 +930,20 @@
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1">
-        <v>4546</v>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E12" s="3">
-        <v>-0.249</v>
+        <v>-0.255</v>
       </c>
       <c r="F12" s="3">
-        <v>-0.27600000000000002</v>
+        <v>-0.28199999999999997</v>
       </c>
       <c r="G12" s="3">
-        <v>-0.222</v>
+        <v>-0.22800000000000001</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -923,20 +956,20 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1">
-        <v>2179</v>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E13" s="3">
         <v>-0.51100000000000001</v>
       </c>
       <c r="F13" s="3">
-        <v>-0.54100000000000004</v>
+        <v>-0.54</v>
       </c>
       <c r="G13" s="3">
         <v>-0.48099999999999998</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -949,20 +982,20 @@
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1">
-        <v>2179</v>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E14" s="3">
-        <v>-0.48899999999999999</v>
+        <v>-0.49299999999999999</v>
       </c>
       <c r="F14" s="3">
-        <v>-0.51800000000000002</v>
+        <v>-0.52600000000000002</v>
       </c>
       <c r="G14" s="3">
-        <v>-0.45800000000000002</v>
+        <v>-0.46100000000000002</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -975,20 +1008,20 @@
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1">
-        <v>2179</v>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E15" s="3">
-        <v>-0.496</v>
+        <v>-0.501</v>
       </c>
       <c r="F15" s="3">
-        <v>-0.52500000000000002</v>
+        <v>-0.53200000000000003</v>
       </c>
       <c r="G15" s="3">
-        <v>-0.46400000000000002</v>
+        <v>-0.46800000000000003</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1001,20 +1034,20 @@
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="1">
-        <v>2179</v>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E16" s="3">
-        <v>-0.505</v>
+        <v>-0.51600000000000001</v>
       </c>
       <c r="F16" s="3">
-        <v>-0.53500000000000003</v>
+        <v>-0.54500000000000004</v>
       </c>
       <c r="G16" s="3">
-        <v>-0.47399999999999998</v>
+        <v>-0.48799999999999999</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1027,20 +1060,20 @@
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1">
-        <v>2179</v>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E17" s="3">
-        <v>-0.51800000000000002</v>
+        <v>-0.52900000000000003</v>
       </c>
       <c r="F17" s="3">
-        <v>-0.54900000000000004</v>
+        <v>-0.55700000000000005</v>
       </c>
       <c r="G17" s="3">
-        <v>-0.48599999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1053,20 +1086,20 @@
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1">
-        <v>2179</v>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E18" s="3">
-        <v>-0.309</v>
+        <v>-0.3</v>
       </c>
       <c r="F18" s="3">
-        <v>-0.34499999999999997</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="G18" s="3">
-        <v>-0.27200000000000002</v>
+        <v>-0.26300000000000001</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1079,20 +1112,20 @@
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="1">
-        <v>2179</v>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E19" s="3">
-        <v>-0.28299999999999997</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="F19" s="3">
-        <v>-0.32400000000000001</v>
+        <v>-0.316</v>
       </c>
       <c r="G19" s="3">
-        <v>-0.245</v>
+        <v>-0.23599999999999999</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1105,20 +1138,20 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1">
-        <v>2179</v>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E20" s="3">
-        <v>-0.28899999999999998</v>
+        <v>-0.28100000000000003</v>
       </c>
       <c r="F20" s="3">
-        <v>-0.33100000000000002</v>
+        <v>-0.32300000000000001</v>
       </c>
       <c r="G20" s="3">
-        <v>-0.249</v>
+        <v>-0.24299999999999999</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1131,20 +1164,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="1">
-        <v>2179</v>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E21" s="3">
-        <v>-0.24099999999999999</v>
+        <v>-0.249</v>
       </c>
       <c r="F21" s="3">
-        <v>-0.28100000000000003</v>
+        <v>-0.28499999999999998</v>
       </c>
       <c r="G21" s="3">
-        <v>-0.20399999999999999</v>
+        <v>-0.215</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1157,20 +1190,20 @@
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="1">
-        <v>2179</v>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E22" s="3">
-        <v>-0.252</v>
+        <v>-0.25900000000000001</v>
       </c>
       <c r="F22" s="3">
-        <v>-0.29199999999999998</v>
+        <v>-0.29499999999999998</v>
       </c>
       <c r="G22" s="3">
-        <v>-0.215</v>
+        <v>-0.221</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1183,20 +1216,20 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="1">
-        <v>577</v>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E23" s="3">
-        <v>-0.51400000000000001</v>
+        <v>-0.52100000000000002</v>
       </c>
       <c r="F23" s="3">
-        <v>-0.56499999999999995</v>
+        <v>-0.57099999999999995</v>
       </c>
       <c r="G23" s="3">
-        <v>-0.45800000000000002</v>
+        <v>-0.46899999999999997</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1209,20 +1242,20 @@
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1">
-        <v>577</v>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E24" s="3">
-        <v>-0.53500000000000003</v>
+        <v>-0.53400000000000003</v>
       </c>
       <c r="F24" s="3">
-        <v>-0.59199999999999997</v>
+        <v>-0.59</v>
       </c>
       <c r="G24" s="3">
-        <v>-0.47499999999999998</v>
+        <v>-0.47699999999999998</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1235,20 +1268,20 @@
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1">
-        <v>577</v>
+      <c r="D25" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E25" s="3">
-        <v>-0.53500000000000003</v>
+        <v>-0.53800000000000003</v>
       </c>
       <c r="F25" s="3">
-        <v>-0.59199999999999997</v>
+        <v>-0.59599999999999997</v>
       </c>
       <c r="G25" s="3">
-        <v>-0.47</v>
+        <v>-0.48</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1261,20 +1294,20 @@
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="1">
-        <v>577</v>
+      <c r="D26" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E26" s="3">
-        <v>-0.40699999999999997</v>
+        <v>-0.41699999999999998</v>
       </c>
       <c r="F26" s="3">
-        <v>-0.46500000000000002</v>
+        <v>-0.47699999999999998</v>
       </c>
       <c r="G26" s="3">
-        <v>-0.34300000000000003</v>
+        <v>-0.35799999999999998</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1287,20 +1320,20 @@
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="1">
-        <v>577</v>
+      <c r="D27" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E27" s="3">
-        <v>-0.42399999999999999</v>
+        <v>-0.43099999999999999</v>
       </c>
       <c r="F27" s="3">
-        <v>-0.47499999999999998</v>
+        <v>-0.48699999999999999</v>
       </c>
       <c r="G27" s="3">
-        <v>-0.36099999999999999</v>
+        <v>-0.373</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1313,20 +1346,20 @@
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="1">
-        <v>577</v>
+      <c r="D28" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E28" s="3">
-        <v>-0.432</v>
+        <v>-0.437</v>
       </c>
       <c r="F28" s="3">
-        <v>-0.49099999999999999</v>
+        <v>-0.496</v>
       </c>
       <c r="G28" s="3">
-        <v>-0.36899999999999999</v>
+        <v>-0.378</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1339,20 +1372,20 @@
       <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="1">
-        <v>577</v>
+      <c r="D29" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E29" s="3">
-        <v>-0.435</v>
+        <v>-0.42899999999999999</v>
       </c>
       <c r="F29" s="3">
-        <v>-0.5</v>
+        <v>-0.497</v>
       </c>
       <c r="G29" s="3">
-        <v>-0.36299999999999999</v>
+        <v>-0.36399999999999999</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1365,20 +1398,20 @@
       <c r="C30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="1">
-        <v>577</v>
+      <c r="D30" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E30" s="3">
-        <v>-0.438</v>
+        <v>-0.437</v>
       </c>
       <c r="F30" s="3">
-        <v>-0.50600000000000001</v>
+        <v>-0.504</v>
       </c>
       <c r="G30" s="3">
-        <v>-0.36699999999999999</v>
+        <v>-0.372</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1391,20 +1424,20 @@
       <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="1">
-        <v>577</v>
+      <c r="D31" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E31" s="3">
-        <v>-0.222</v>
+        <v>-0.23499999999999999</v>
       </c>
       <c r="F31" s="3">
-        <v>-0.29799999999999999</v>
+        <v>-0.30199999999999999</v>
       </c>
       <c r="G31" s="3">
-        <v>-0.14599999999999999</v>
+        <v>-0.161</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1417,20 +1450,20 @@
       <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="1">
-        <v>577</v>
+      <c r="D32" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E32" s="3">
-        <v>-0.253</v>
+        <v>-0.25900000000000001</v>
       </c>
       <c r="F32" s="3">
-        <v>-0.32200000000000001</v>
+        <v>-0.32400000000000001</v>
       </c>
       <c r="G32" s="3">
-        <v>-0.183</v>
+        <v>-0.189</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1443,20 +1476,20 @@
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="1">
-        <v>327</v>
+      <c r="D33" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E33" s="3">
-        <v>-0.55600000000000005</v>
+        <v>-0.56799999999999995</v>
       </c>
       <c r="F33" s="3">
-        <v>-0.628</v>
+        <v>-0.63500000000000001</v>
       </c>
       <c r="G33" s="3">
-        <v>-0.48</v>
+        <v>-0.48899999999999999</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1469,20 +1502,20 @@
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="1">
-        <v>327</v>
+      <c r="D34" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E34" s="3">
-        <v>-0.60799999999999998</v>
+        <v>-0.61899999999999999</v>
       </c>
       <c r="F34" s="3">
-        <v>-0.67200000000000004</v>
+        <v>-0.67700000000000005</v>
       </c>
       <c r="G34" s="3">
-        <v>-0.53700000000000003</v>
+        <v>-0.54900000000000004</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1495,20 +1528,20 @@
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="1">
-        <v>327</v>
+      <c r="D35" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E35" s="3">
-        <v>-0.60499999999999998</v>
+        <v>-0.61699999999999999</v>
       </c>
       <c r="F35" s="3">
-        <v>-0.67</v>
+        <v>-0.67400000000000004</v>
       </c>
       <c r="G35" s="3">
-        <v>-0.53400000000000003</v>
+        <v>-0.54700000000000004</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1521,20 +1554,20 @@
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="1">
-        <v>327</v>
+      <c r="D36" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E36" s="3">
-        <v>-0.50800000000000001</v>
+        <v>-0.50900000000000001</v>
       </c>
       <c r="F36" s="3">
-        <v>-0.58299999999999996</v>
+        <v>-0.58199999999999996</v>
       </c>
       <c r="G36" s="3">
-        <v>-0.42799999999999999</v>
+        <v>-0.434</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1547,20 +1580,20 @@
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="1">
-        <v>327</v>
+      <c r="D37" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E37" s="3">
-        <v>-0.5</v>
+        <v>-0.505</v>
       </c>
       <c r="F37" s="3">
-        <v>-0.57499999999999996</v>
+        <v>-0.58199999999999996</v>
       </c>
       <c r="G37" s="3">
-        <v>-0.41899999999999998</v>
+        <v>-0.42799999999999999</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1573,20 +1606,20 @@
       <c r="C38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="1">
-        <v>327</v>
+      <c r="D38" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E38" s="3">
-        <v>-0.36199999999999999</v>
+        <v>-0.375</v>
       </c>
       <c r="F38" s="3">
-        <v>-0.45100000000000001</v>
+        <v>-0.46500000000000002</v>
       </c>
       <c r="G38" s="3">
-        <v>-0.26200000000000001</v>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1599,20 +1632,20 @@
       <c r="C39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="1">
-        <v>327</v>
+      <c r="D39" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E39" s="3">
-        <v>-0.42399999999999999</v>
+        <v>-0.437</v>
       </c>
       <c r="F39" s="3">
-        <v>-0.50900000000000001</v>
+        <v>-0.51800000000000002</v>
       </c>
       <c r="G39" s="3">
-        <v>-0.33200000000000002</v>
+        <v>-0.35</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1625,20 +1658,20 @@
       <c r="C40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="1">
-        <v>327</v>
+      <c r="D40" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E40" s="3">
-        <v>-0.42299999999999999</v>
+        <v>-0.438</v>
       </c>
       <c r="F40" s="3">
-        <v>-0.50900000000000001</v>
+        <v>-0.51900000000000002</v>
       </c>
       <c r="G40" s="3">
-        <v>-0.32800000000000001</v>
+        <v>-0.34899999999999998</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1651,20 +1684,20 @@
       <c r="C41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="1">
-        <v>327</v>
+      <c r="D41" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E41" s="3">
-        <v>-0.14599999999999999</v>
+        <v>-0.13800000000000001</v>
       </c>
       <c r="F41" s="3">
-        <v>-0.24299999999999999</v>
+        <v>-0.22700000000000001</v>
       </c>
       <c r="G41" s="3">
-        <v>-4.7E-2</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="H41" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -1677,17 +1710,17 @@
       <c r="C42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="1">
-        <v>327</v>
+      <c r="D42" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E42" s="3">
-        <v>-0.14499999999999999</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="F42" s="3">
-        <v>-0.247</v>
+        <v>-0.23499999999999999</v>
       </c>
       <c r="G42" s="3">
-        <v>-4.2000000000000003E-2</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="H42" s="1">
         <v>8.9999999999999993E-3</v>
@@ -1704,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E6E3BF-169C-40AF-9ABE-1F1C5BD901FE}">
   <dimension ref="A1:AS103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1718,7 +1751,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1729,7 +1762,7 @@
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1738,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -1759,22 +1792,22 @@
     </row>
     <row r="3" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1">
-        <v>787</v>
+        <v>28</v>
+      </c>
+      <c r="C3" s="5">
+        <v>905</v>
       </c>
       <c r="D3" s="4">
-        <v>0.32201770000000002</v>
+        <v>0.32807543779964399</v>
       </c>
       <c r="E3" s="4">
-        <v>0.25793779999999999</v>
+        <v>0.26865197309052802</v>
       </c>
       <c r="F3" s="4">
-        <v>0.38327709999999998</v>
+        <v>0.38501117192291401</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>22</v>
@@ -1789,22 +1822,22 @@
     </row>
     <row r="4" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1">
-        <v>787</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="5">
+        <v>905</v>
       </c>
       <c r="D4" s="4">
-        <v>0.45253349999999998</v>
+        <v>0.449305605792583</v>
       </c>
       <c r="E4" s="4">
-        <v>0.39514539999999998</v>
+        <v>0.39572525576415701</v>
       </c>
       <c r="F4" s="4">
-        <v>0.50640300000000005</v>
+        <v>0.49983755015022102</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
@@ -1819,22 +1852,22 @@
     </row>
     <row r="5" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5">
         <v>3321</v>
       </c>
       <c r="D5" s="4">
-        <v>0.59609460000000003</v>
+        <v>0.59727197268091603</v>
       </c>
       <c r="E5" s="4">
-        <v>0.57371380000000005</v>
+        <v>0.57493899866199405</v>
       </c>
       <c r="F5" s="4">
-        <v>0.61758590000000002</v>
+        <v>0.61871562925922197</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
@@ -1849,22 +1882,22 @@
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2518</v>
+        <v>32</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2682</v>
       </c>
       <c r="D6" s="4">
-        <v>0.44845570000000001</v>
+        <v>0.45723590709651801</v>
       </c>
       <c r="E6" s="4">
-        <v>0.41669289999999998</v>
+        <v>0.42677261367289498</v>
       </c>
       <c r="F6" s="4">
-        <v>0.47912490000000002</v>
+        <v>0.48666274699829698</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>22</v>
@@ -1879,22 +1912,22 @@
     </row>
     <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2518</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2682</v>
       </c>
       <c r="D7" s="4">
-        <v>0.56589929999999999</v>
+        <v>0.56316547057918898</v>
       </c>
       <c r="E7" s="4">
-        <v>0.53874619999999995</v>
+        <v>0.53675760438673004</v>
       </c>
       <c r="F7" s="4">
-        <v>0.59187800000000002</v>
+        <v>0.58847105218210305</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>22</v>
@@ -1909,22 +1942,22 @@
     </row>
     <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5">
         <v>3321</v>
       </c>
       <c r="D8" s="4">
-        <v>0.694384</v>
+        <v>0.68997248474520301</v>
       </c>
       <c r="E8" s="4">
-        <v>0.67634499999999997</v>
+        <v>0.67172362686948195</v>
       </c>
       <c r="F8" s="4">
-        <v>0.71159050000000001</v>
+        <v>0.70738445802306305</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>4</v>
@@ -1939,21 +1972,21 @@
     </row>
     <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>3321</v>
       </c>
       <c r="D9" s="4">
-        <v>0.52806229999999998</v>
-      </c>
-      <c r="E9" s="5">
+        <v>0.52806226883436602</v>
+      </c>
+      <c r="E9" s="4">
         <v>0.50308532463015798</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.55215782796262303</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1969,22 +2002,22 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1">
-        <v>470</v>
+      <c r="C10" s="5">
+        <v>492</v>
       </c>
       <c r="D10" s="4">
-        <v>0.409995</v>
+        <v>0.40963310242516698</v>
       </c>
       <c r="E10" s="4">
-        <v>0.3318528</v>
+        <v>0.333301370163536</v>
       </c>
       <c r="F10" s="4">
-        <v>0.4825489</v>
+        <v>0.480629766051408</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>4</v>
@@ -1999,22 +2032,22 @@
     </row>
     <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1">
-        <v>470</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="5">
+        <v>492</v>
       </c>
       <c r="D11" s="4">
-        <v>0.5248157</v>
+        <v>0.55447781740178403</v>
       </c>
       <c r="E11" s="4">
-        <v>0.45601370000000002</v>
+        <v>0.49009953205205198</v>
       </c>
       <c r="F11" s="4">
-        <v>0.58738190000000001</v>
+        <v>0.61283979911889697</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>4</v>
@@ -2029,22 +2062,22 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5">
         <v>3321</v>
       </c>
       <c r="D12" s="4">
-        <v>0.75960260000000002</v>
+        <v>0.76432019736735501</v>
       </c>
       <c r="E12" s="4">
-        <v>0.74483339999999998</v>
+        <v>0.74979969403534197</v>
       </c>
       <c r="F12" s="4">
-        <v>0.77362770000000003</v>
+        <v>0.77810486069559504</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>4</v>
@@ -2059,22 +2092,22 @@
     </row>
     <row r="13" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1824</v>
+        <v>32</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1923</v>
       </c>
       <c r="D13" s="4">
-        <v>0.54230489999999998</v>
+        <v>0.55341130982417996</v>
       </c>
       <c r="E13" s="4">
-        <v>0.5090787</v>
+        <v>0.521614713383314</v>
       </c>
       <c r="F13" s="4">
-        <v>0.57391729999999996</v>
+        <v>0.58367274501705202</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>4</v>
@@ -2089,22 +2122,22 @@
     </row>
     <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1824</v>
+        <v>33</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1923</v>
       </c>
       <c r="D14" s="4">
-        <v>0.67678539999999998</v>
+        <v>0.68664931290526998</v>
       </c>
       <c r="E14" s="4">
-        <v>0.65111330000000001</v>
+        <v>0.66227669484042795</v>
       </c>
       <c r="F14" s="4">
-        <v>0.70091060000000005</v>
+        <v>0.70957033515960599</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>4</v>
@@ -2119,22 +2152,22 @@
     </row>
     <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5">
         <v>3321</v>
       </c>
       <c r="D15" s="4">
-        <v>0.79623710000000003</v>
+        <v>0.79603459889579498</v>
       </c>
       <c r="E15" s="4">
-        <v>0.78344159999999996</v>
+        <v>0.78322798419851603</v>
       </c>
       <c r="F15" s="4">
-        <v>0.80835769999999996</v>
+        <v>0.80816600756046797</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>4</v>
@@ -2149,16 +2182,16 @@
     </row>
     <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3320</v>
       </c>
       <c r="D16" s="4">
-        <v>0.57685209999999998</v>
+        <v>0.57685208763998497</v>
       </c>
       <c r="E16" s="4">
         <v>0.55369958571659295</v>
@@ -2170,17 +2203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+    <row r="18" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2219,31 +2242,7 @@
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
     </row>
-    <row r="19" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="19" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2282,31 +2281,7 @@
       <c r="AR19" s="1"/>
       <c r="AS19" s="1"/>
     </row>
-    <row r="20" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.50325370000000003</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.47741280000000003</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.52822480000000005</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="20" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2345,31 +2320,7 @@
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
     </row>
-    <row r="21" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.51575910000000003</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.49034820000000001</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.54029389999999999</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="21" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2408,31 +2359,7 @@
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
     </row>
-    <row r="22" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="1">
-        <v>30</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.52816879999999999</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.50319570000000002</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.55226059999999999</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="22" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2471,31 +2398,7 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
     </row>
-    <row r="23" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="1">
-        <v>35</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.54696259999999997</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.52267350000000001</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.57036450000000005</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="23" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2534,31 +2437,7 @@
       <c r="AR23" s="1"/>
       <c r="AS23" s="1"/>
     </row>
-    <row r="24" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1">
-        <v>40</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.56825079999999994</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.54476720000000001</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.59084389999999998</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="24" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2597,31 +2476,7 @@
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
     </row>
-    <row r="25" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="1">
-        <v>45</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.58053410000000005</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.55752999999999997</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.6026473</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="25" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2660,31 +2515,7 @@
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
     </row>
-    <row r="26" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1">
-        <v>50</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.58414330000000003</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.56128230000000001</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.60611360000000003</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="26" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2723,31 +2554,7 @@
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
     </row>
-    <row r="27" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1">
-        <v>55</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.59609460000000003</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.57371380000000005</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0.61758590000000002</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="27" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2786,31 +2593,7 @@
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
     </row>
-    <row r="28" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>60</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0.60648360000000001</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.58452850000000001</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.62755110000000003</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="28" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2849,31 +2632,7 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
     </row>
-    <row r="29" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1">
-        <v>65</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0.60796740000000005</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.58607379999999998</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0.62897380000000003</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="29" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2912,31 +2671,7 @@
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
     </row>
-    <row r="30" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="1">
-        <v>70</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.61674450000000003</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.59521769999999996</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0.63738669999999997</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="30" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2975,31 +2710,7 @@
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
     </row>
-    <row r="31" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1">
-        <v>75</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.62132270000000001</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.59998940000000001</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0.64177289999999998</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="31" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -3038,31 +2749,7 @@
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
     </row>
-    <row r="32" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="1">
-        <v>80</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.62969569999999997</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0.60872029999999999</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.64979140000000002</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="32" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -3101,31 +2788,7 @@
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
     </row>
-    <row r="33" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="1">
-        <v>85</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0.63459600000000005</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.61383239999999994</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0.65448220000000001</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="33" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -3164,31 +2827,7 @@
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
     </row>
-    <row r="34" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="1">
-        <v>90</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0.63611110000000004</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0.61541330000000005</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0.65593219999999997</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="34" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3227,31 +2866,7 @@
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
     </row>
-    <row r="35" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="1">
-        <v>95</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0.64102380000000003</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.6205406</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0.66063280000000002</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="35" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3290,31 +2905,7 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
     </row>
-    <row r="36" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="1">
-        <v>100</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.64470240000000001</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.62438110000000002</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0.66415159999999995</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="36" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3353,31 +2944,7 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
     </row>
-    <row r="37" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="1">
-        <v>105</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0.65173080000000005</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.63172150000000005</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0.67087220000000003</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="37" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3416,31 +2983,7 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
     </row>
-    <row r="38" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="1">
-        <v>110</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="1">
-        <v>3160</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0.65100480000000005</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.63044710000000004</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0.67064990000000002</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="38" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3479,31 +3022,7 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
     </row>
-    <row r="39" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="1">
-        <v>115</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="1">
-        <v>3081</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0.6576014</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.6370827</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0.67718869999999998</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="39" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3542,31 +3061,7 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
     </row>
-    <row r="40" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="1">
-        <v>120</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2701</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0.67101580000000005</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.64974379999999998</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0.69123780000000001</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="40" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -3605,31 +3100,7 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
     </row>
-    <row r="41" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="1">
-        <v>20</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0.63058979999999998</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.60965290000000005</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0.65064739999999999</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="41" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3668,31 +3139,7 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
     </row>
-    <row r="42" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="1">
-        <v>25</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0.64934630000000004</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.62923079999999998</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0.66859250000000003</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="42" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3731,31 +3178,7 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
     </row>
-    <row r="43" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="1">
-        <v>30</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0.65015990000000001</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0.63008050000000004</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0.66937040000000003</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="43" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3794,31 +3217,7 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
     </row>
-    <row r="44" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="1">
-        <v>35</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0.66269889999999998</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.64318359999999997</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0.68135380000000001</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="44" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3857,31 +3256,7 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
     </row>
-    <row r="45" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="1">
-        <v>40</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0.67387790000000003</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0.65487510000000004</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0.69202900000000001</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="45" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3920,31 +3295,7 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
     </row>
-    <row r="46" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="1">
-        <v>45</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0.68563269999999998</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0.66717870000000001</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0.70324560000000003</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="46" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3983,31 +3334,7 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
     </row>
-    <row r="47" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="1">
-        <v>50</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0.69303139999999996</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.67492790000000003</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0.71030099999999996</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="47" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -4046,31 +3373,7 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
     </row>
-    <row r="48" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="1">
-        <v>55</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0.694384</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.67634499999999997</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0.71159050000000001</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="48" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -4109,31 +3412,7 @@
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
     </row>
-    <row r="49" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="1">
-        <v>60</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0.69956209999999996</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0.68177140000000003</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0.71652579999999999</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="49" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -4172,31 +3451,7 @@
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
     </row>
-    <row r="50" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="1">
-        <v>65</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0.70201150000000001</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0.68433889999999997</v>
-      </c>
-      <c r="G50" s="3">
-        <v>0.71885980000000005</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="50" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -4235,31 +3490,7 @@
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
     </row>
-    <row r="51" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="1">
-        <v>70</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0.70206089999999999</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0.68439070000000002</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0.71890679999999996</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="51" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -4298,31 +3529,7 @@
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
     </row>
-    <row r="52" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="1">
-        <v>75</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0.70022859999999998</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0.68247000000000002</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0.71716100000000005</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="52" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -4361,31 +3568,7 @@
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
     </row>
-    <row r="53" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="1">
-        <v>80</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0.70212660000000005</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0.68445959999999995</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0.71896950000000004</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="53" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -4424,31 +3607,7 @@
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
     </row>
-    <row r="54" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="1">
-        <v>85</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0.70200169999999995</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0.68432870000000001</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0.71885049999999995</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="54" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -4487,31 +3646,7 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
     </row>
-    <row r="55" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="1">
-        <v>90</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0.70398070000000001</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0.6864034</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0.72073589999999998</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="55" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4550,31 +3685,7 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
     </row>
-    <row r="56" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="1">
-        <v>95</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0.706094</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0.68861930000000005</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0.72274910000000003</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="56" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -4613,31 +3724,7 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
     </row>
-    <row r="57" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="1">
-        <v>100</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0.710615</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0.69336070000000005</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0.72705489999999995</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="57" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -4676,31 +3763,7 @@
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
     </row>
-    <row r="58" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="1">
-        <v>105</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0.71420119999999998</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0.69712289999999999</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0.73046940000000005</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="58" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -4739,31 +3802,7 @@
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
     </row>
-    <row r="59" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="1">
-        <v>110</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="1">
-        <v>3160</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0.7166167</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0.69921979999999995</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0.73316539999999997</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="59" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -4802,31 +3841,7 @@
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
     </row>
-    <row r="60" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" s="1">
-        <v>115</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="1">
-        <v>3081</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0.7243849</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0.70716129999999999</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0.74074930000000005</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="60" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -4865,31 +3880,7 @@
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
     </row>
-    <row r="61" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" s="1">
-        <v>120</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2701</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0.72791459999999997</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0.70968240000000005</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0.74517239999999996</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="61" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -4928,31 +3919,7 @@
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
     </row>
-    <row r="62" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="1">
-        <v>20</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0.69190119999999999</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0.67374400000000001</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0.70922350000000001</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="62" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -4991,31 +3958,7 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
     </row>
-    <row r="63" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="1">
-        <v>25</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0.69880200000000003</v>
-      </c>
-      <c r="F63" s="3">
-        <v>0.68097479999999999</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0.71580149999999998</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="63" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -5054,31 +3997,7 @@
       <c r="AR63" s="1"/>
       <c r="AS63" s="1"/>
     </row>
-    <row r="64" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="1">
-        <v>30</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0.70301040000000004</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0.68538619999999995</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0.7198116</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="64" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -5117,31 +4036,7 @@
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
     </row>
-    <row r="65" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="1">
-        <v>35</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0.72250300000000001</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0.70583560000000001</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0.73837079999999999</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="65" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -5180,31 +4075,7 @@
       <c r="AR65" s="1"/>
       <c r="AS65" s="1"/>
     </row>
-    <row r="66" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="1">
-        <v>40</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0.73364450000000003</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0.71753659999999997</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0.74896810000000003</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="66" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -5243,31 +4114,7 @@
       <c r="AR66" s="1"/>
       <c r="AS66" s="1"/>
     </row>
-    <row r="67" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="1">
-        <v>45</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0.746448</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0.73099420000000004</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0.76113640000000005</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="67" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -5306,31 +4153,7 @@
       <c r="AR67" s="1"/>
       <c r="AS67" s="1"/>
     </row>
-    <row r="68" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B68" s="1">
-        <v>50</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0.75189729999999999</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0.73672570000000004</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0.7663124</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="68" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -5369,31 +4192,7 @@
       <c r="AR68" s="1"/>
       <c r="AS68" s="1"/>
     </row>
-    <row r="69" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B69" s="1">
-        <v>55</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0.75960260000000002</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0.74483339999999998</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0.77362770000000003</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="69" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -5432,31 +4231,7 @@
       <c r="AR69" s="1"/>
       <c r="AS69" s="1"/>
     </row>
-    <row r="70" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="1">
-        <v>60</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0.76244000000000001</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0.74782020000000005</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0.77632069999999997</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="70" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -5495,31 +4270,7 @@
       <c r="AR70" s="1"/>
       <c r="AS70" s="1"/>
     </row>
-    <row r="71" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="1">
-        <v>65</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D71" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0.76464969999999999</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0.7501466</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0.77841749999999998</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="71" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -5558,31 +4309,7 @@
       <c r="AR71" s="1"/>
       <c r="AS71" s="1"/>
     </row>
-    <row r="72" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B72" s="1">
-        <v>70</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" s="1">
-        <v>3240</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0.76703120000000002</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0.75247090000000005</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0.78084220000000004</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="72" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -5621,31 +4348,7 @@
       <c r="AR72" s="1"/>
       <c r="AS72" s="1"/>
     </row>
-    <row r="73" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" s="1">
-        <v>75</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2775</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0.76418140000000001</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0.74824829999999998</v>
-      </c>
-      <c r="G73" s="3">
-        <v>0.77923339999999996</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="73" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -5684,31 +4387,7 @@
       <c r="AR73" s="1"/>
       <c r="AS73" s="1"/>
     </row>
-    <row r="74" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B74" s="1">
-        <v>80</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" s="1">
-        <v>2775</v>
-      </c>
-      <c r="E74" s="3">
-        <v>0.76372150000000005</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0.74776169999999997</v>
-      </c>
-      <c r="G74" s="3">
-        <v>0.77879920000000002</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="74" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -5747,31 +4426,7 @@
       <c r="AR74" s="1"/>
       <c r="AS74" s="1"/>
     </row>
-    <row r="75" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B75" s="1">
-        <v>20</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0.75713819999999998</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0.74223989999999995</v>
-      </c>
-      <c r="G75" s="3">
-        <v>0.77128850000000004</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="75" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -5810,31 +4465,7 @@
       <c r="AR75" s="1"/>
       <c r="AS75" s="1"/>
     </row>
-    <row r="76" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76" s="1">
-        <v>25</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D76" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0.76385860000000005</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0.74931369999999997</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0.77766679999999999</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="76" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -5873,31 +4504,7 @@
       <c r="AR76" s="1"/>
       <c r="AS76" s="1"/>
     </row>
-    <row r="77" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B77" s="1">
-        <v>30</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0.77118229999999999</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0.75702630000000004</v>
-      </c>
-      <c r="G77" s="3">
-        <v>0.78461460000000005</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="77" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -5936,31 +4543,7 @@
       <c r="AR77" s="1"/>
       <c r="AS77" s="1"/>
     </row>
-    <row r="78" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B78" s="1">
-        <v>35</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D78" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E78" s="3">
-        <v>0.77672200000000002</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0.76286290000000001</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0.78986769999999995</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="78" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -5999,31 +4582,7 @@
       <c r="AR78" s="1"/>
       <c r="AS78" s="1"/>
     </row>
-    <row r="79" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B79" s="1">
-        <v>40</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E79" s="3">
-        <v>0.78110800000000002</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0.76748550000000004</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0.79402530000000004</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="79" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -6062,31 +4621,7 @@
       <c r="AR79" s="1"/>
       <c r="AS79" s="1"/>
     </row>
-    <row r="80" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B80" s="1">
-        <v>45</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D80" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E80" s="3">
-        <v>0.78785019999999994</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0.77459420000000001</v>
-      </c>
-      <c r="G80" s="3">
-        <v>0.80041430000000002</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="80" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -6126,30 +4661,6 @@
       <c r="AS80" s="1"/>
     </row>
     <row r="81" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" s="1">
-        <v>50</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E81" s="3">
-        <v>0.79232309999999995</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0.77931209999999995</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0.80465129999999996</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -6189,30 +4700,6 @@
       <c r="AS81" s="1"/>
     </row>
     <row r="82" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B82" s="1">
-        <v>55</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D82" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E82" s="3">
-        <v>0.79623710000000003</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0.78344159999999996</v>
-      </c>
-      <c r="G82" s="3">
-        <v>0.80835769999999996</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -6252,30 +4739,6 @@
       <c r="AS82" s="1"/>
     </row>
     <row r="83" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B83" s="1">
-        <v>60</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D83" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0.79596820000000001</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0.78315789999999996</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0.80810309999999996</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -6315,30 +4778,6 @@
       <c r="AS83" s="1"/>
     </row>
     <row r="84" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B84" s="1">
-        <v>65</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="1">
-        <v>3321</v>
-      </c>
-      <c r="E84" s="3">
-        <v>0.79825860000000004</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0.78557489999999996</v>
-      </c>
-      <c r="G84" s="3">
-        <v>0.81027170000000004</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -6378,30 +4817,6 @@
       <c r="AS84" s="1"/>
     </row>
     <row r="85" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B85" s="1">
-        <v>70</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" s="1">
-        <v>3240</v>
-      </c>
-      <c r="E85" s="3">
-        <v>0.80165770000000003</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0.78900309999999996</v>
-      </c>
-      <c r="G85" s="3">
-        <v>0.81363240000000003</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -6441,30 +4856,6 @@
       <c r="AS85" s="1"/>
     </row>
     <row r="86" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="1">
-        <v>75</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" s="1">
-        <v>2775</v>
-      </c>
-      <c r="E86" s="3">
-        <v>0.79951280000000002</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0.78567679999999995</v>
-      </c>
-      <c r="G86" s="3">
-        <v>0.81254930000000003</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -6504,30 +4895,6 @@
       <c r="AS86" s="1"/>
     </row>
     <row r="87" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" s="1">
-        <v>80</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="1">
-        <v>2775</v>
-      </c>
-      <c r="E87" s="3">
-        <v>0.7990159</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0.78514969999999995</v>
-      </c>
-      <c r="G87" s="3">
-        <v>0.81208130000000001</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -7323,4 +5690,1826 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C0762C-5F45-4DA4-B2B6-A78222BA4808}">
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.50309320000000002</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.47724680000000003</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.52806989999999998</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.51565910000000004</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.49024469999999998</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.54019740000000005</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.52799499999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.50301560000000001</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.55209299999999994</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.54721589999999998</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.52293610000000001</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.57060829999999996</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.56738909999999998</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.54387220000000003</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.59001550000000003</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.57838480000000003</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.55529609999999996</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.60058270000000002</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.58396269999999995</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.56109450000000005</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.60594020000000004</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.59722399999999998</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.57488899999999998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.61866960000000004</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.60893549999999996</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.58708210000000005</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.62990210000000002</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.61085529999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.58908179999999999</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.63174240000000004</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.61940989999999996</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.59799559999999996</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.63994050000000002</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.62382510000000002</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.60259830000000003</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.64416989999999996</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.63067070000000003</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.60973730000000004</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.65072490000000005</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1">
+        <v>85</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.63521340000000004</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.61447660000000004</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.65507309999999996</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1">
+        <v>90</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.6365982</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.61592170000000002</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.65639840000000005</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
+        <v>95</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.64235699999999996</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.62193240000000005</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.66190819999999995</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>100</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.64683100000000004</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.62660380000000004</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.66618730000000004</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <v>105</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.65300170000000002</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.63304910000000003</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.67208710000000005</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>110</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3160</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.65233209999999997</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.63183509999999998</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.67191730000000005</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1">
+        <v>115</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3081</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.65961420000000004</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.63918980000000003</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.67910859999999995</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>120</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2701</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.67299549999999997</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.65182470000000003</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.69311800000000001</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.62861999999999996</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.60759830000000004</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.64876149999999999</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.64565360000000005</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.62537430000000005</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.66506129999999997</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.6460747</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.62581399999999998</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.66546400000000006</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.65810239999999998</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.63837900000000003</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.67696219999999996</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.66957319999999998</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.65037199999999995</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.68791930000000001</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.68114359999999996</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.66247880000000003</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.69896309999999995</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.68809560000000003</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.66975790000000002</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.70559459999999996</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1">
+        <v>55</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.68988590000000005</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.67163289999999998</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.70730190000000004</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.69586999999999999</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.67790209999999995</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.71300699999999995</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1">
+        <v>65</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.69811330000000005</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.680253</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.71514509999999998</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.69864139999999997</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.68080640000000003</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.71564839999999996</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.6970539</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.67914269999999999</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.71413539999999998</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1">
+        <v>80</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.69932470000000002</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.68152259999999998</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.71629960000000004</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="1">
+        <v>85</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.70052179999999997</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.68277739999999998</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.71744039999999998</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1">
+        <v>90</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.70231650000000001</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.68465869999999995</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.71915050000000003</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="1">
+        <v>95</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.70481579999999999</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.68727899999999997</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.72153149999999999</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1">
+        <v>100</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.70976700000000004</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.69247130000000001</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.72624730000000004</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1">
+        <v>105</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.71348509999999998</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.69637159999999998</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.72978770000000004</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="1">
+        <v>110</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3160</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.71580390000000005</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.69836580000000004</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.73239259999999995</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="1">
+        <v>115</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3081</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.72384459999999995</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.70659300000000003</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.74023629999999996</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="1">
+        <v>120</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2701</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.72757119999999997</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.7093199</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.74484760000000005</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="1">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.69854570000000005</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.68070609999999998</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.7155572</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="1">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.70591079999999995</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.68842709999999996</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.72257459999999996</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="1">
+        <v>30</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.71164119999999997</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.69443710000000003</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.72803200000000001</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1">
+        <v>35</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.73128510000000002</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.71505799999999997</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.74672459999999996</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="1">
+        <v>40</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.74278560000000005</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.72714350000000005</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.75765680000000002</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.75456109999999998</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.73952810000000002</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.76884180000000002</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.75965590000000005</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.74488960000000004</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.77367839999999999</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="1">
+        <v>55</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.76426240000000001</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.74973880000000004</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.77805000000000002</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="1">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.76789799999999997</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.75356710000000005</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.78149930000000001</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="1">
+        <v>65</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.76958720000000003</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.75534619999999997</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.78310170000000001</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="1">
+        <v>70</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="5">
+        <v>3240</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.77241769999999998</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.75814789999999999</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.78594810000000004</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="1">
+        <v>75</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2775</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.76882410000000001</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.75316079999999996</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.78361619999999998</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="1">
+        <v>80</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2775</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.76839170000000001</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.75270320000000002</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0.78320800000000002</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="1">
+        <v>20</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.75901739999999995</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.74421749999999998</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.77307230000000005</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="1">
+        <v>25</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.76746919999999996</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0.75311550000000005</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.78109249999999997</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="1">
+        <v>30</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.77428810000000003</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0.76029829999999998</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.78756000000000004</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="1">
+        <v>35</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.77935600000000005</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0.76563879999999995</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0.79236470000000003</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="1">
+        <v>40</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.78324970000000005</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0.76974330000000002</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.79605519999999996</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.78971939999999996</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0.77656559999999997</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0.80218500000000004</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="1">
+        <v>50</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.79292510000000005</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0.77994719999999995</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.80522139999999998</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="1">
+        <v>55</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.79598829999999998</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.78317910000000002</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.80812209999999995</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="1">
+        <v>60</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0.79624779999999995</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0.78345290000000001</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0.80836790000000003</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="1">
+        <v>65</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0.79831810000000003</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0.78563769999999999</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0.81032800000000005</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="1">
+        <v>70</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="5">
+        <v>3240</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.8013711</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0.78870030000000002</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0.81336129999999995</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="1">
+        <v>75</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="5">
+        <v>2775</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.79937550000000002</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0.78553130000000004</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.81242000000000003</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="1">
+        <v>80</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2775</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.79885689999999998</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0.78498109999999999</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0.81193159999999998</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Supplementary Tables.xlsx
+++ b/data/Supplementary Tables.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ziyi Ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860553DC-15EC-40E6-A2FE-E0D8CE0F644D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F046AD97-54D7-4516-8168-644391CC4CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="360" windowWidth="21600" windowHeight="12405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Supplementary Tab. 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Supplementary Tab. 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Supplementary Tab. 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Supplementary Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Supplementary Table 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Supplementary Table 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="59">
   <si>
     <t>Variables</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,98 +77,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SUBTLEX WCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SWOW-ZH R1 k</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="9.6"/>
-        <color rgb="FF374151"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SWOW-ZH R123 k</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="9.6"/>
-        <color rgb="FF374151"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SWOW-ZH R1 k</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="9.6"/>
-        <color rgb="FF374151"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">in, </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>length of words, SWOW-ZH R1 k</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="9.6"/>
-        <color rgb="FF374151"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.6"/>
-        <color rgb="FF374151"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and SWOW-ZH R123 k</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="9.6"/>
-        <color rgb="FF374151"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>length of words, unigram WF, SUBTLEX WF and SUBTLEX WCD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -204,20 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Concrete</t>
-  </si>
-  <si>
-    <t>Word2Vec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWOW-ZH R1 Strength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SWOW-ZH R1 PPMI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,10 +121,6 @@
   </si>
   <si>
     <t>SWOW-ZH R1 RW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWOW-ZH R123 Strength</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -279,15 +170,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Supplementary Tab. 1 Partial Correlations between Lexical Decision Tasks and Word Indicators</t>
+    <t>SWOW-ZH R1 strength</t>
+  </si>
+  <si>
+    <t>SWOW-ZH R123 strength</t>
+  </si>
+  <si>
+    <t>SWOW-ZH R1 RW embedding</t>
+  </si>
+  <si>
+    <t>SWOW-ZH R123 RW embedding</t>
+  </si>
+  <si>
+    <t>word2vec</t>
+  </si>
+  <si>
+    <t>GPT-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Supplementary Tab. 2 Correlation Coefficients for Relatedness judgment Tasks and Semantic Similarity</t>
+    <t>SUBTLEX CD</t>
+  </si>
+  <si>
+    <t>length of words, unigram WF, SUBTLEX WF and SUBTLEX CD</t>
+  </si>
+  <si>
+    <t>Relatedness Ratings (Abstract)</t>
+  </si>
+  <si>
+    <t>Relatedness Ratings (Concrete)</t>
+  </si>
+  <si>
+    <t>Similarity Ratings (SemLex)</t>
+  </si>
+  <si>
+    <r>
+      <t>length of words, SWOW-ZH R1 k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and SWOW-ZH R123 k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Supplementary Tab. 3 Correlation Coefficients for Relatedness judgment Tasks and Random Walk Semantic Similarity in Different Numbers of Participants</t>
+    <r>
+      <t>SWOW-ZH R1 k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SWOW-ZH R123 k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SWOW-ZH R1 k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">in, </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoBERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplementary Table 1 Partial Correlations between Lexical Decision Tasks and Word Accessibility Measurements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplementary Table 2 Correlation Coefficients for Relatedness judgment Tasks and Semantic Similarity Tasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplementary Table 3 Correlation Coefficients for Relatedness Judgment Tasks and Random Walk Estimates in Different Numbers of Participants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relatedness Ratings (Abstract)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT-3.5-turbo R1 RW</t>
+  </si>
+  <si>
+    <t>GPT-3.5-turbo R1 RW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT-3.5-turbo R123 RW</t>
+  </si>
+  <si>
+    <t>GPT-3.5-turbo R123 RW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,12 +325,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,15 +353,22 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9.6"/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
       <color rgb="FF374151"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
-      <sz val="9.6"/>
-      <color rgb="FF374151"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -355,13 +393,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -646,14 +689,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="54.125" style="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -677,10 +724,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>1</v>
@@ -688,7 +735,7 @@
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -697,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3">
         <v>-0.51600000000000001</v>
@@ -709,12 +756,12 @@
         <v>-0.497</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -723,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E4" s="3">
         <v>-0.52</v>
@@ -735,21 +782,21 @@
         <v>-0.498</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3">
         <v>-0.52600000000000002</v>
@@ -761,21 +808,21 @@
         <v>-0.504</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3">
         <v>-0.46800000000000003</v>
@@ -787,21 +834,21 @@
         <v>-0.44700000000000001</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3">
         <v>-0.47499999999999998</v>
@@ -813,21 +860,21 @@
         <v>-0.45400000000000001</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3">
         <v>-0.378</v>
@@ -839,21 +886,21 @@
         <v>-0.35299999999999998</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3">
         <v>-0.38300000000000001</v>
@@ -865,21 +912,21 @@
         <v>-0.35799999999999998</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3">
         <v>-0.39</v>
@@ -891,21 +938,21 @@
         <v>-0.36499999999999999</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3">
         <v>-0.246</v>
@@ -917,21 +964,21 @@
         <v>-0.222</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3">
         <v>-0.255</v>
@@ -943,12 +990,12 @@
         <v>-0.22800000000000001</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
@@ -957,7 +1004,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3">
         <v>-0.51100000000000001</v>
@@ -969,12 +1016,12 @@
         <v>-0.48099999999999998</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
@@ -983,7 +1030,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3">
         <v>-0.49299999999999999</v>
@@ -995,21 +1042,21 @@
         <v>-0.46100000000000002</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3">
         <v>-0.501</v>
@@ -1021,21 +1068,21 @@
         <v>-0.46800000000000003</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E16" s="3">
         <v>-0.51600000000000001</v>
@@ -1047,21 +1094,21 @@
         <v>-0.48799999999999999</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3">
         <v>-0.52900000000000003</v>
@@ -1073,21 +1120,21 @@
         <v>-0.5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3">
         <v>-0.3</v>
@@ -1099,21 +1146,21 @@
         <v>-0.26300000000000001</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E19" s="3">
         <v>-0.27500000000000002</v>
@@ -1125,21 +1172,21 @@
         <v>-0.23599999999999999</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E20" s="3">
         <v>-0.28100000000000003</v>
@@ -1151,21 +1198,21 @@
         <v>-0.24299999999999999</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E21" s="3">
         <v>-0.249</v>
@@ -1177,21 +1224,21 @@
         <v>-0.215</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E22" s="3">
         <v>-0.25900000000000001</v>
@@ -1203,12 +1250,12 @@
         <v>-0.221</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
@@ -1217,7 +1264,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E23" s="3">
         <v>-0.52100000000000002</v>
@@ -1229,12 +1276,12 @@
         <v>-0.46899999999999997</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>9</v>
@@ -1243,7 +1290,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E24" s="3">
         <v>-0.53400000000000003</v>
@@ -1255,21 +1302,21 @@
         <v>-0.47699999999999998</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E25" s="3">
         <v>-0.53800000000000003</v>
@@ -1281,21 +1328,21 @@
         <v>-0.48</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E26" s="3">
         <v>-0.41699999999999998</v>
@@ -1307,21 +1354,21 @@
         <v>-0.35799999999999998</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E27" s="3">
         <v>-0.43099999999999999</v>
@@ -1333,21 +1380,21 @@
         <v>-0.373</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E28" s="3">
         <v>-0.437</v>
@@ -1359,21 +1406,21 @@
         <v>-0.378</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E29" s="3">
         <v>-0.42899999999999999</v>
@@ -1385,21 +1432,21 @@
         <v>-0.36399999999999999</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E30" s="3">
         <v>-0.437</v>
@@ -1411,21 +1458,21 @@
         <v>-0.372</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E31" s="3">
         <v>-0.23499999999999999</v>
@@ -1437,21 +1484,21 @@
         <v>-0.161</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E32" s="3">
         <v>-0.25900000000000001</v>
@@ -1463,12 +1510,12 @@
         <v>-0.189</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
@@ -1477,7 +1524,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E33" s="3">
         <v>-0.56799999999999995</v>
@@ -1489,12 +1536,12 @@
         <v>-0.48899999999999999</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>9</v>
@@ -1503,7 +1550,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E34" s="3">
         <v>-0.61899999999999999</v>
@@ -1515,21 +1562,21 @@
         <v>-0.54900000000000004</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E35" s="3">
         <v>-0.61699999999999999</v>
@@ -1541,21 +1588,21 @@
         <v>-0.54700000000000004</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E36" s="3">
         <v>-0.50900000000000001</v>
@@ -1567,21 +1614,21 @@
         <v>-0.434</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E37" s="3">
         <v>-0.505</v>
@@ -1593,21 +1640,21 @@
         <v>-0.42799999999999999</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E38" s="3">
         <v>-0.375</v>
@@ -1619,21 +1666,21 @@
         <v>-0.27900000000000003</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E39" s="3">
         <v>-0.437</v>
@@ -1645,21 +1692,21 @@
         <v>-0.35</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E40" s="3">
         <v>-0.438</v>
@@ -1671,21 +1718,21 @@
         <v>-0.34899999999999998</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E41" s="3">
         <v>-0.13800000000000001</v>
@@ -1702,16 +1749,16 @@
     </row>
     <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E42" s="3">
         <v>-0.14000000000000001</v>
@@ -1735,34 +1782,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E6E3BF-169C-40AF-9ABE-1F1C5BD901FE}">
-  <dimension ref="A1:AS103"/>
+  <dimension ref="A1:AL108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="31.375" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="10" customWidth="1"/>
     <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1771,33 +1820,27 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5">
+        <v>35</v>
+      </c>
+      <c r="C3" s="10">
         <v>905</v>
       </c>
       <c r="D3" s="4">
@@ -1810,24 +1853,18 @@
         <v>0.38501117192291401</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10">
         <v>905</v>
       </c>
       <c r="D4" s="4">
@@ -1840,24 +1877,18 @@
         <v>0.49983755015022102</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="5">
+        <v>21</v>
+      </c>
+      <c r="C5" s="10">
         <v>3321</v>
       </c>
       <c r="D5" s="4">
@@ -1872,417 +1903,367 @@
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5">
+        <v>37</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2881</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.56390069156627098</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.53847102075964104</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.588304166046968</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="10">
         <v>2682</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <v>0.45723590709651801</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>0.42677261367289498</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <v>0.48666274699829698</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="C8" s="10">
         <v>2682</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="4">
         <v>0.56316547057918898</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="4">
         <v>0.53675760438673004</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="4">
         <v>0.58847105218210305</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3321</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.68997248474520301</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.67172362686948195</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.70738445802306305</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="10">
+        <v>3219</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.65281662793605599</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.63253477325765195</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.672203818222191</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2084</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.20265452588378999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.16111821018946301</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.24347420910893999</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="10">
+        <v>3248</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.39753095704101099</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.36817174874551101</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.42609817999889599</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="10">
+        <v>3321</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.52806226883436602</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.50308532463015798</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.55215782796262303</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="10">
+        <v>492</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.40963310242516698</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.333301370163536</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.480629766051408</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="10">
+        <v>492</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.55447781740178403</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.49009953205205198</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.61283979911889697</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="10">
+        <v>3321</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.76432019736735501</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.74979969403534197</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.77810486069559504</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2616</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.70056823417932301</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.68051534267962699</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.71957250889028002</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1923</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.55341130982417996</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.521614713383314</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.58367274501705202</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5">
-        <v>3321</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.68997248474520301</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.67172362686948195</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.70738445802306305</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5">
-        <v>3321</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.52806226883436602</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.50308532463015798</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.55215782796262303</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5">
-        <v>492</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.40963310242516698</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.333301370163536</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.480629766051408</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="5">
-        <v>492</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.55447781740178403</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.49009953205205198</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.61283979911889697</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="5">
-        <v>3321</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.76432019736735501</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.74979969403534197</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.77810486069559504</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="C19" s="10">
         <v>1923</v>
       </c>
-      <c r="D13" s="4">
-        <v>0.55341130982417996</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.521614713383314</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.58367274501705202</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1923</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="D19" s="4">
         <v>0.68664931290526998</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E19" s="4">
         <v>0.66227669484042795</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F19" s="4">
         <v>0.70957033515960599</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3321</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="G19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="10">
+        <v>3321</v>
+      </c>
+      <c r="D20" s="4">
         <v>0.79603459889579498</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E20" s="4">
         <v>0.78322798419851603</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F20" s="4">
         <v>0.80816600756046797</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="5">
-        <v>3320</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.57685208763998497</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.55369958571659295</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.59911341991790501</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-    </row>
-    <row r="19" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-    </row>
-    <row r="20" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="6"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2312,16 +2293,30 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
-      <c r="AS20" s="1"/>
-    </row>
-    <row r="21" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I21" s="1"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3119</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.72725405774285401</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.71028668734302003</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.74337681934286304</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="6"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2351,16 +2346,30 @@
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
-      <c r="AR21" s="1"/>
-      <c r="AS21" s="1"/>
-    </row>
-    <row r="22" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I22" s="1"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2324</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.14654726947528701</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.106521655172133</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.186098711005729</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="6"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2390,16 +2399,30 @@
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
-    </row>
-    <row r="23" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I23" s="1"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3262</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.38943561906153501</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.35992701108103398</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.41816586117591498</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="6"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -2429,16 +2452,30 @@
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-    </row>
-    <row r="24" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I24" s="1"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3320</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.57685208763998497</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.55369958571659295</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.59911341991790501</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2468,16 +2505,30 @@
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-    </row>
-    <row r="25" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I25" s="1"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="10">
+        <v>356</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.29928909454908098</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.20553650509377699</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.39452099315038403</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="6"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2507,16 +2558,30 @@
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-    </row>
-    <row r="26" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I26" s="1"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="10">
+        <v>356</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.35978322089381598</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.27041567312374898</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.45099525521974398</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="6"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2546,16 +2611,30 @@
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
-      <c r="AP26" s="1"/>
-      <c r="AQ26" s="1"/>
-      <c r="AR26" s="1"/>
-      <c r="AS26" s="1"/>
-    </row>
-    <row r="27" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I27" s="1"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="10">
+        <v>537</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.50982943234619704</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.45067988963330602</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.57515013102219004</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="6"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2585,16 +2664,30 @@
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="1"/>
-      <c r="AQ27" s="1"/>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1"/>
-    </row>
-    <row r="28" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I28" s="1"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="10">
+        <v>510</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.56491781588822698</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.50997536123584197</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.62719976431816704</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="6"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2624,16 +2717,30 @@
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="1"/>
-      <c r="AR28" s="1"/>
-      <c r="AS28" s="1"/>
-    </row>
-    <row r="29" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I29" s="1"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="10">
+        <v>490</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.47208872702392102</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.406990054030272</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.54386469269273596</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="6"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2663,16 +2770,30 @@
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
-      <c r="AP29" s="1"/>
-      <c r="AQ29" s="1"/>
-      <c r="AR29" s="1"/>
-      <c r="AS29" s="1"/>
-    </row>
-    <row r="30" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I30" s="1"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="10">
+        <v>490</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.50852299298803905</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.44716816637710799</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.57755355561450505</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="6"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2702,16 +2823,30 @@
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1"/>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="1"/>
-    </row>
-    <row r="31" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I31" s="1"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="10">
+        <v>537</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.54450409897747698</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.491289912608461</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.60903825398973399</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="6"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2741,16 +2876,30 @@
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-    </row>
-    <row r="32" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I32" s="1"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="10">
+        <v>523</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.60532666244515698</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.55428163169512201</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.66204235412705403</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="6"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2780,16 +2929,30 @@
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
-      <c r="AQ32" s="1"/>
-      <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
-    </row>
-    <row r="33" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I33" s="1"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="10">
+        <v>496</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.42096335127035001</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.34573356705572</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.49081591871901997</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="6"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2819,16 +2982,29 @@
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-      <c r="AP33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1"/>
-    </row>
-    <row r="34" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I34" s="1"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="10">
+        <v>534</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.57976439335114605</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.52051985886582997</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.633453345530545</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2858,16 +3034,30 @@
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-    </row>
-    <row r="35" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I35" s="1"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="10">
+        <v>537</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.45637877737659899</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.38838599790253298</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.52232358635089404</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="6"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2897,55 +3087,8 @@
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1"/>
-      <c r="AQ35" s="1"/>
-      <c r="AR35" s="1"/>
-      <c r="AS35" s="1"/>
-    </row>
-    <row r="36" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
-    </row>
-    <row r="37" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I37" s="1"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2975,16 +3118,8 @@
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
-      <c r="AO37" s="1"/>
-      <c r="AP37" s="1"/>
-      <c r="AQ37" s="1"/>
-      <c r="AR37" s="1"/>
-      <c r="AS37" s="1"/>
-    </row>
-    <row r="38" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I38" s="1"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -3014,16 +3149,8 @@
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="1"/>
-      <c r="AS38" s="1"/>
-    </row>
-    <row r="39" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I39" s="1"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3053,16 +3180,8 @@
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-    </row>
-    <row r="40" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I40" s="1"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3092,16 +3211,8 @@
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
-      <c r="AP40" s="1"/>
-      <c r="AQ40" s="1"/>
-      <c r="AR40" s="1"/>
-      <c r="AS40" s="1"/>
-    </row>
-    <row r="41" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I41" s="1"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -3131,16 +3242,8 @@
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
-      <c r="AQ41" s="1"/>
-      <c r="AR41" s="1"/>
-      <c r="AS41" s="1"/>
-    </row>
-    <row r="42" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I42" s="1"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -3170,16 +3273,8 @@
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
-      <c r="AM42" s="1"/>
-      <c r="AN42" s="1"/>
-      <c r="AO42" s="1"/>
-      <c r="AP42" s="1"/>
-      <c r="AQ42" s="1"/>
-      <c r="AR42" s="1"/>
-      <c r="AS42" s="1"/>
-    </row>
-    <row r="43" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I43" s="1"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -3209,16 +3304,8 @@
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
-      <c r="AQ43" s="1"/>
-      <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-    </row>
-    <row r="44" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I44" s="1"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -3248,16 +3335,8 @@
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
-      <c r="AM44" s="1"/>
-      <c r="AN44" s="1"/>
-      <c r="AO44" s="1"/>
-      <c r="AP44" s="1"/>
-      <c r="AQ44" s="1"/>
-      <c r="AR44" s="1"/>
-      <c r="AS44" s="1"/>
-    </row>
-    <row r="45" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="I45" s="1"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -3287,15 +3366,8 @@
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1"/>
-      <c r="AM45" s="1"/>
-      <c r="AN45" s="1"/>
-      <c r="AO45" s="1"/>
-      <c r="AP45" s="1"/>
-      <c r="AQ45" s="1"/>
-      <c r="AR45" s="1"/>
-      <c r="AS45" s="1"/>
-    </row>
-    <row r="46" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3326,15 +3398,8 @@
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
-      <c r="AM46" s="1"/>
-      <c r="AN46" s="1"/>
-      <c r="AO46" s="1"/>
-      <c r="AP46" s="1"/>
-      <c r="AQ46" s="1"/>
-      <c r="AR46" s="1"/>
-      <c r="AS46" s="1"/>
-    </row>
-    <row r="47" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3365,15 +3430,8 @@
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
-      <c r="AM47" s="1"/>
-      <c r="AN47" s="1"/>
-      <c r="AO47" s="1"/>
-      <c r="AP47" s="1"/>
-      <c r="AQ47" s="1"/>
-      <c r="AR47" s="1"/>
-      <c r="AS47" s="1"/>
-    </row>
-    <row r="48" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3404,15 +3462,8 @@
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
-      <c r="AM48" s="1"/>
-      <c r="AN48" s="1"/>
-      <c r="AO48" s="1"/>
-      <c r="AP48" s="1"/>
-      <c r="AQ48" s="1"/>
-      <c r="AR48" s="1"/>
-      <c r="AS48" s="1"/>
-    </row>
-    <row r="49" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3443,15 +3494,8 @@
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
-      <c r="AN49" s="1"/>
-      <c r="AO49" s="1"/>
-      <c r="AP49" s="1"/>
-      <c r="AQ49" s="1"/>
-      <c r="AR49" s="1"/>
-      <c r="AS49" s="1"/>
-    </row>
-    <row r="50" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3482,15 +3526,8 @@
       <c r="AJ50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
-      <c r="AM50" s="1"/>
-      <c r="AN50" s="1"/>
-      <c r="AO50" s="1"/>
-      <c r="AP50" s="1"/>
-      <c r="AQ50" s="1"/>
-      <c r="AR50" s="1"/>
-      <c r="AS50" s="1"/>
-    </row>
-    <row r="51" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -3521,15 +3558,8 @@
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
-      <c r="AM51" s="1"/>
-      <c r="AN51" s="1"/>
-      <c r="AO51" s="1"/>
-      <c r="AP51" s="1"/>
-      <c r="AQ51" s="1"/>
-      <c r="AR51" s="1"/>
-      <c r="AS51" s="1"/>
-    </row>
-    <row r="52" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3560,15 +3590,8 @@
       <c r="AJ52" s="1"/>
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
-      <c r="AM52" s="1"/>
-      <c r="AN52" s="1"/>
-      <c r="AO52" s="1"/>
-      <c r="AP52" s="1"/>
-      <c r="AQ52" s="1"/>
-      <c r="AR52" s="1"/>
-      <c r="AS52" s="1"/>
-    </row>
-    <row r="53" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -3599,15 +3622,8 @@
       <c r="AJ53" s="1"/>
       <c r="AK53" s="1"/>
       <c r="AL53" s="1"/>
-      <c r="AM53" s="1"/>
-      <c r="AN53" s="1"/>
-      <c r="AO53" s="1"/>
-      <c r="AP53" s="1"/>
-      <c r="AQ53" s="1"/>
-      <c r="AR53" s="1"/>
-      <c r="AS53" s="1"/>
-    </row>
-    <row r="54" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -3638,15 +3654,8 @@
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
       <c r="AL54" s="1"/>
-      <c r="AM54" s="1"/>
-      <c r="AN54" s="1"/>
-      <c r="AO54" s="1"/>
-      <c r="AP54" s="1"/>
-      <c r="AQ54" s="1"/>
-      <c r="AR54" s="1"/>
-      <c r="AS54" s="1"/>
-    </row>
-    <row r="55" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3677,15 +3686,8 @@
       <c r="AJ55" s="1"/>
       <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
-      <c r="AM55" s="1"/>
-      <c r="AN55" s="1"/>
-      <c r="AO55" s="1"/>
-      <c r="AP55" s="1"/>
-      <c r="AQ55" s="1"/>
-      <c r="AR55" s="1"/>
-      <c r="AS55" s="1"/>
-    </row>
-    <row r="56" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3716,15 +3718,8 @@
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
       <c r="AL56" s="1"/>
-      <c r="AM56" s="1"/>
-      <c r="AN56" s="1"/>
-      <c r="AO56" s="1"/>
-      <c r="AP56" s="1"/>
-      <c r="AQ56" s="1"/>
-      <c r="AR56" s="1"/>
-      <c r="AS56" s="1"/>
-    </row>
-    <row r="57" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3755,15 +3750,8 @@
       <c r="AJ57" s="1"/>
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
-      <c r="AM57" s="1"/>
-      <c r="AN57" s="1"/>
-      <c r="AO57" s="1"/>
-      <c r="AP57" s="1"/>
-      <c r="AQ57" s="1"/>
-      <c r="AR57" s="1"/>
-      <c r="AS57" s="1"/>
-    </row>
-    <row r="58" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3794,15 +3782,8 @@
       <c r="AJ58" s="1"/>
       <c r="AK58" s="1"/>
       <c r="AL58" s="1"/>
-      <c r="AM58" s="1"/>
-      <c r="AN58" s="1"/>
-      <c r="AO58" s="1"/>
-      <c r="AP58" s="1"/>
-      <c r="AQ58" s="1"/>
-      <c r="AR58" s="1"/>
-      <c r="AS58" s="1"/>
-    </row>
-    <row r="59" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3833,15 +3814,8 @@
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
-      <c r="AM59" s="1"/>
-      <c r="AN59" s="1"/>
-      <c r="AO59" s="1"/>
-      <c r="AP59" s="1"/>
-      <c r="AQ59" s="1"/>
-      <c r="AR59" s="1"/>
-      <c r="AS59" s="1"/>
-    </row>
-    <row r="60" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -3872,15 +3846,8 @@
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
-      <c r="AM60" s="1"/>
-      <c r="AN60" s="1"/>
-      <c r="AO60" s="1"/>
-      <c r="AP60" s="1"/>
-      <c r="AQ60" s="1"/>
-      <c r="AR60" s="1"/>
-      <c r="AS60" s="1"/>
-    </row>
-    <row r="61" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -3911,15 +3878,8 @@
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
-      <c r="AM61" s="1"/>
-      <c r="AN61" s="1"/>
-      <c r="AO61" s="1"/>
-      <c r="AP61" s="1"/>
-      <c r="AQ61" s="1"/>
-      <c r="AR61" s="1"/>
-      <c r="AS61" s="1"/>
-    </row>
-    <row r="62" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -3950,15 +3910,8 @@
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
-      <c r="AM62" s="1"/>
-      <c r="AN62" s="1"/>
-      <c r="AO62" s="1"/>
-      <c r="AP62" s="1"/>
-      <c r="AQ62" s="1"/>
-      <c r="AR62" s="1"/>
-      <c r="AS62" s="1"/>
-    </row>
-    <row r="63" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -3989,15 +3942,8 @@
       <c r="AJ63" s="1"/>
       <c r="AK63" s="1"/>
       <c r="AL63" s="1"/>
-      <c r="AM63" s="1"/>
-      <c r="AN63" s="1"/>
-      <c r="AO63" s="1"/>
-      <c r="AP63" s="1"/>
-      <c r="AQ63" s="1"/>
-      <c r="AR63" s="1"/>
-      <c r="AS63" s="1"/>
-    </row>
-    <row r="64" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -4028,15 +3974,8 @@
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
       <c r="AL64" s="1"/>
-      <c r="AM64" s="1"/>
-      <c r="AN64" s="1"/>
-      <c r="AO64" s="1"/>
-      <c r="AP64" s="1"/>
-      <c r="AQ64" s="1"/>
-      <c r="AR64" s="1"/>
-      <c r="AS64" s="1"/>
-    </row>
-    <row r="65" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -4067,15 +4006,8 @@
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
-      <c r="AM65" s="1"/>
-      <c r="AN65" s="1"/>
-      <c r="AO65" s="1"/>
-      <c r="AP65" s="1"/>
-      <c r="AQ65" s="1"/>
-      <c r="AR65" s="1"/>
-      <c r="AS65" s="1"/>
-    </row>
-    <row r="66" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -4106,15 +4038,8 @@
       <c r="AJ66" s="1"/>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
-      <c r="AM66" s="1"/>
-      <c r="AN66" s="1"/>
-      <c r="AO66" s="1"/>
-      <c r="AP66" s="1"/>
-      <c r="AQ66" s="1"/>
-      <c r="AR66" s="1"/>
-      <c r="AS66" s="1"/>
-    </row>
-    <row r="67" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -4145,15 +4070,8 @@
       <c r="AJ67" s="1"/>
       <c r="AK67" s="1"/>
       <c r="AL67" s="1"/>
-      <c r="AM67" s="1"/>
-      <c r="AN67" s="1"/>
-      <c r="AO67" s="1"/>
-      <c r="AP67" s="1"/>
-      <c r="AQ67" s="1"/>
-      <c r="AR67" s="1"/>
-      <c r="AS67" s="1"/>
-    </row>
-    <row r="68" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -4184,15 +4102,8 @@
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
       <c r="AL68" s="1"/>
-      <c r="AM68" s="1"/>
-      <c r="AN68" s="1"/>
-      <c r="AO68" s="1"/>
-      <c r="AP68" s="1"/>
-      <c r="AQ68" s="1"/>
-      <c r="AR68" s="1"/>
-      <c r="AS68" s="1"/>
-    </row>
-    <row r="69" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -4223,15 +4134,8 @@
       <c r="AJ69" s="1"/>
       <c r="AK69" s="1"/>
       <c r="AL69" s="1"/>
-      <c r="AM69" s="1"/>
-      <c r="AN69" s="1"/>
-      <c r="AO69" s="1"/>
-      <c r="AP69" s="1"/>
-      <c r="AQ69" s="1"/>
-      <c r="AR69" s="1"/>
-      <c r="AS69" s="1"/>
-    </row>
-    <row r="70" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -4262,15 +4166,8 @@
       <c r="AJ70" s="1"/>
       <c r="AK70" s="1"/>
       <c r="AL70" s="1"/>
-      <c r="AM70" s="1"/>
-      <c r="AN70" s="1"/>
-      <c r="AO70" s="1"/>
-      <c r="AP70" s="1"/>
-      <c r="AQ70" s="1"/>
-      <c r="AR70" s="1"/>
-      <c r="AS70" s="1"/>
-    </row>
-    <row r="71" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -4301,15 +4198,8 @@
       <c r="AJ71" s="1"/>
       <c r="AK71" s="1"/>
       <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
-      <c r="AN71" s="1"/>
-      <c r="AO71" s="1"/>
-      <c r="AP71" s="1"/>
-      <c r="AQ71" s="1"/>
-      <c r="AR71" s="1"/>
-      <c r="AS71" s="1"/>
-    </row>
-    <row r="72" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -4340,15 +4230,8 @@
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
-      <c r="AM72" s="1"/>
-      <c r="AN72" s="1"/>
-      <c r="AO72" s="1"/>
-      <c r="AP72" s="1"/>
-      <c r="AQ72" s="1"/>
-      <c r="AR72" s="1"/>
-      <c r="AS72" s="1"/>
-    </row>
-    <row r="73" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -4379,15 +4262,8 @@
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
       <c r="AL73" s="1"/>
-      <c r="AM73" s="1"/>
-      <c r="AN73" s="1"/>
-      <c r="AO73" s="1"/>
-      <c r="AP73" s="1"/>
-      <c r="AQ73" s="1"/>
-      <c r="AR73" s="1"/>
-      <c r="AS73" s="1"/>
-    </row>
-    <row r="74" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -4418,15 +4294,8 @@
       <c r="AJ74" s="1"/>
       <c r="AK74" s="1"/>
       <c r="AL74" s="1"/>
-      <c r="AM74" s="1"/>
-      <c r="AN74" s="1"/>
-      <c r="AO74" s="1"/>
-      <c r="AP74" s="1"/>
-      <c r="AQ74" s="1"/>
-      <c r="AR74" s="1"/>
-      <c r="AS74" s="1"/>
-    </row>
-    <row r="75" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -4457,15 +4326,8 @@
       <c r="AJ75" s="1"/>
       <c r="AK75" s="1"/>
       <c r="AL75" s="1"/>
-      <c r="AM75" s="1"/>
-      <c r="AN75" s="1"/>
-      <c r="AO75" s="1"/>
-      <c r="AP75" s="1"/>
-      <c r="AQ75" s="1"/>
-      <c r="AR75" s="1"/>
-      <c r="AS75" s="1"/>
-    </row>
-    <row r="76" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -4496,15 +4358,8 @@
       <c r="AJ76" s="1"/>
       <c r="AK76" s="1"/>
       <c r="AL76" s="1"/>
-      <c r="AM76" s="1"/>
-      <c r="AN76" s="1"/>
-      <c r="AO76" s="1"/>
-      <c r="AP76" s="1"/>
-      <c r="AQ76" s="1"/>
-      <c r="AR76" s="1"/>
-      <c r="AS76" s="1"/>
-    </row>
-    <row r="77" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -4535,15 +4390,8 @@
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1"/>
       <c r="AL77" s="1"/>
-      <c r="AM77" s="1"/>
-      <c r="AN77" s="1"/>
-      <c r="AO77" s="1"/>
-      <c r="AP77" s="1"/>
-      <c r="AQ77" s="1"/>
-      <c r="AR77" s="1"/>
-      <c r="AS77" s="1"/>
-    </row>
-    <row r="78" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -4574,15 +4422,8 @@
       <c r="AJ78" s="1"/>
       <c r="AK78" s="1"/>
       <c r="AL78" s="1"/>
-      <c r="AM78" s="1"/>
-      <c r="AN78" s="1"/>
-      <c r="AO78" s="1"/>
-      <c r="AP78" s="1"/>
-      <c r="AQ78" s="1"/>
-      <c r="AR78" s="1"/>
-      <c r="AS78" s="1"/>
-    </row>
-    <row r="79" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -4613,15 +4454,8 @@
       <c r="AJ79" s="1"/>
       <c r="AK79" s="1"/>
       <c r="AL79" s="1"/>
-      <c r="AM79" s="1"/>
-      <c r="AN79" s="1"/>
-      <c r="AO79" s="1"/>
-      <c r="AP79" s="1"/>
-      <c r="AQ79" s="1"/>
-      <c r="AR79" s="1"/>
-      <c r="AS79" s="1"/>
-    </row>
-    <row r="80" spans="9:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="9:38" x14ac:dyDescent="0.3">
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -4652,15 +4486,8 @@
       <c r="AJ80" s="1"/>
       <c r="AK80" s="1"/>
       <c r="AL80" s="1"/>
-      <c r="AM80" s="1"/>
-      <c r="AN80" s="1"/>
-      <c r="AO80" s="1"/>
-      <c r="AP80" s="1"/>
-      <c r="AQ80" s="1"/>
-      <c r="AR80" s="1"/>
-      <c r="AS80" s="1"/>
-    </row>
-    <row r="81" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -4691,15 +4518,8 @@
       <c r="AJ81" s="1"/>
       <c r="AK81" s="1"/>
       <c r="AL81" s="1"/>
-      <c r="AM81" s="1"/>
-      <c r="AN81" s="1"/>
-      <c r="AO81" s="1"/>
-      <c r="AP81" s="1"/>
-      <c r="AQ81" s="1"/>
-      <c r="AR81" s="1"/>
-      <c r="AS81" s="1"/>
-    </row>
-    <row r="82" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -4730,15 +4550,8 @@
       <c r="AJ82" s="1"/>
       <c r="AK82" s="1"/>
       <c r="AL82" s="1"/>
-      <c r="AM82" s="1"/>
-      <c r="AN82" s="1"/>
-      <c r="AO82" s="1"/>
-      <c r="AP82" s="1"/>
-      <c r="AQ82" s="1"/>
-      <c r="AR82" s="1"/>
-      <c r="AS82" s="1"/>
-    </row>
-    <row r="83" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -4769,15 +4582,8 @@
       <c r="AJ83" s="1"/>
       <c r="AK83" s="1"/>
       <c r="AL83" s="1"/>
-      <c r="AM83" s="1"/>
-      <c r="AN83" s="1"/>
-      <c r="AO83" s="1"/>
-      <c r="AP83" s="1"/>
-      <c r="AQ83" s="1"/>
-      <c r="AR83" s="1"/>
-      <c r="AS83" s="1"/>
-    </row>
-    <row r="84" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -4808,15 +4614,8 @@
       <c r="AJ84" s="1"/>
       <c r="AK84" s="1"/>
       <c r="AL84" s="1"/>
-      <c r="AM84" s="1"/>
-      <c r="AN84" s="1"/>
-      <c r="AO84" s="1"/>
-      <c r="AP84" s="1"/>
-      <c r="AQ84" s="1"/>
-      <c r="AR84" s="1"/>
-      <c r="AS84" s="1"/>
-    </row>
-    <row r="85" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -4847,15 +4646,8 @@
       <c r="AJ85" s="1"/>
       <c r="AK85" s="1"/>
       <c r="AL85" s="1"/>
-      <c r="AM85" s="1"/>
-      <c r="AN85" s="1"/>
-      <c r="AO85" s="1"/>
-      <c r="AP85" s="1"/>
-      <c r="AQ85" s="1"/>
-      <c r="AR85" s="1"/>
-      <c r="AS85" s="1"/>
-    </row>
-    <row r="86" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -4886,15 +4678,8 @@
       <c r="AJ86" s="1"/>
       <c r="AK86" s="1"/>
       <c r="AL86" s="1"/>
-      <c r="AM86" s="1"/>
-      <c r="AN86" s="1"/>
-      <c r="AO86" s="1"/>
-      <c r="AP86" s="1"/>
-      <c r="AQ86" s="1"/>
-      <c r="AR86" s="1"/>
-      <c r="AS86" s="1"/>
-    </row>
-    <row r="87" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -4925,23 +4710,8 @@
       <c r="AJ87" s="1"/>
       <c r="AK87" s="1"/>
       <c r="AL87" s="1"/>
-      <c r="AM87" s="1"/>
-      <c r="AN87" s="1"/>
-      <c r="AO87" s="1"/>
-      <c r="AP87" s="1"/>
-      <c r="AQ87" s="1"/>
-      <c r="AR87" s="1"/>
-      <c r="AS87" s="1"/>
-    </row>
-    <row r="88" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -4972,23 +4742,8 @@
       <c r="AJ88" s="1"/>
       <c r="AK88" s="1"/>
       <c r="AL88" s="1"/>
-      <c r="AM88" s="1"/>
-      <c r="AN88" s="1"/>
-      <c r="AO88" s="1"/>
-      <c r="AP88" s="1"/>
-      <c r="AQ88" s="1"/>
-      <c r="AR88" s="1"/>
-      <c r="AS88" s="1"/>
-    </row>
-    <row r="89" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -5019,23 +4774,8 @@
       <c r="AJ89" s="1"/>
       <c r="AK89" s="1"/>
       <c r="AL89" s="1"/>
-      <c r="AM89" s="1"/>
-      <c r="AN89" s="1"/>
-      <c r="AO89" s="1"/>
-      <c r="AP89" s="1"/>
-      <c r="AQ89" s="1"/>
-      <c r="AR89" s="1"/>
-      <c r="AS89" s="1"/>
-    </row>
-    <row r="90" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -5066,23 +4806,8 @@
       <c r="AJ90" s="1"/>
       <c r="AK90" s="1"/>
       <c r="AL90" s="1"/>
-      <c r="AM90" s="1"/>
-      <c r="AN90" s="1"/>
-      <c r="AO90" s="1"/>
-      <c r="AP90" s="1"/>
-      <c r="AQ90" s="1"/>
-      <c r="AR90" s="1"/>
-      <c r="AS90" s="1"/>
-    </row>
-    <row r="91" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -5113,23 +4838,8 @@
       <c r="AJ91" s="1"/>
       <c r="AK91" s="1"/>
       <c r="AL91" s="1"/>
-      <c r="AM91" s="1"/>
-      <c r="AN91" s="1"/>
-      <c r="AO91" s="1"/>
-      <c r="AP91" s="1"/>
-      <c r="AQ91" s="1"/>
-      <c r="AR91" s="1"/>
-      <c r="AS91" s="1"/>
-    </row>
-    <row r="92" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.3">
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -5160,15 +4870,8 @@
       <c r="AJ92" s="1"/>
       <c r="AK92" s="1"/>
       <c r="AL92" s="1"/>
-      <c r="AM92" s="1"/>
-      <c r="AN92" s="1"/>
-      <c r="AO92" s="1"/>
-      <c r="AP92" s="1"/>
-      <c r="AQ92" s="1"/>
-      <c r="AR92" s="1"/>
-      <c r="AS92" s="1"/>
-    </row>
-    <row r="93" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5207,15 +4910,8 @@
       <c r="AJ93" s="1"/>
       <c r="AK93" s="1"/>
       <c r="AL93" s="1"/>
-      <c r="AM93" s="1"/>
-      <c r="AN93" s="1"/>
-      <c r="AO93" s="1"/>
-      <c r="AP93" s="1"/>
-      <c r="AQ93" s="1"/>
-      <c r="AR93" s="1"/>
-      <c r="AS93" s="1"/>
-    </row>
-    <row r="94" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5254,15 +4950,8 @@
       <c r="AJ94" s="1"/>
       <c r="AK94" s="1"/>
       <c r="AL94" s="1"/>
-      <c r="AM94" s="1"/>
-      <c r="AN94" s="1"/>
-      <c r="AO94" s="1"/>
-      <c r="AP94" s="1"/>
-      <c r="AQ94" s="1"/>
-      <c r="AR94" s="1"/>
-      <c r="AS94" s="1"/>
-    </row>
-    <row r="95" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5301,15 +4990,8 @@
       <c r="AJ95" s="1"/>
       <c r="AK95" s="1"/>
       <c r="AL95" s="1"/>
-      <c r="AM95" s="1"/>
-      <c r="AN95" s="1"/>
-      <c r="AO95" s="1"/>
-      <c r="AP95" s="1"/>
-      <c r="AQ95" s="1"/>
-      <c r="AR95" s="1"/>
-      <c r="AS95" s="1"/>
-    </row>
-    <row r="96" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5348,15 +5030,8 @@
       <c r="AJ96" s="1"/>
       <c r="AK96" s="1"/>
       <c r="AL96" s="1"/>
-      <c r="AM96" s="1"/>
-      <c r="AN96" s="1"/>
-      <c r="AO96" s="1"/>
-      <c r="AP96" s="1"/>
-      <c r="AQ96" s="1"/>
-      <c r="AR96" s="1"/>
-      <c r="AS96" s="1"/>
-    </row>
-    <row r="97" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5395,15 +5070,8 @@
       <c r="AJ97" s="1"/>
       <c r="AK97" s="1"/>
       <c r="AL97" s="1"/>
-      <c r="AM97" s="1"/>
-      <c r="AN97" s="1"/>
-      <c r="AO97" s="1"/>
-      <c r="AP97" s="1"/>
-      <c r="AQ97" s="1"/>
-      <c r="AR97" s="1"/>
-      <c r="AS97" s="1"/>
-    </row>
-    <row r="98" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5442,15 +5110,8 @@
       <c r="AJ98" s="1"/>
       <c r="AK98" s="1"/>
       <c r="AL98" s="1"/>
-      <c r="AM98" s="1"/>
-      <c r="AN98" s="1"/>
-      <c r="AO98" s="1"/>
-      <c r="AP98" s="1"/>
-      <c r="AQ98" s="1"/>
-      <c r="AR98" s="1"/>
-      <c r="AS98" s="1"/>
-    </row>
-    <row r="99" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5489,15 +5150,8 @@
       <c r="AJ99" s="1"/>
       <c r="AK99" s="1"/>
       <c r="AL99" s="1"/>
-      <c r="AM99" s="1"/>
-      <c r="AN99" s="1"/>
-      <c r="AO99" s="1"/>
-      <c r="AP99" s="1"/>
-      <c r="AQ99" s="1"/>
-      <c r="AR99" s="1"/>
-      <c r="AS99" s="1"/>
-    </row>
-    <row r="100" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5536,15 +5190,8 @@
       <c r="AJ100" s="1"/>
       <c r="AK100" s="1"/>
       <c r="AL100" s="1"/>
-      <c r="AM100" s="1"/>
-      <c r="AN100" s="1"/>
-      <c r="AO100" s="1"/>
-      <c r="AP100" s="1"/>
-      <c r="AQ100" s="1"/>
-      <c r="AR100" s="1"/>
-      <c r="AS100" s="1"/>
-    </row>
-    <row r="101" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5583,15 +5230,8 @@
       <c r="AJ101" s="1"/>
       <c r="AK101" s="1"/>
       <c r="AL101" s="1"/>
-      <c r="AM101" s="1"/>
-      <c r="AN101" s="1"/>
-      <c r="AO101" s="1"/>
-      <c r="AP101" s="1"/>
-      <c r="AQ101" s="1"/>
-      <c r="AR101" s="1"/>
-      <c r="AS101" s="1"/>
-    </row>
-    <row r="102" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5630,15 +5270,8 @@
       <c r="AJ102" s="1"/>
       <c r="AK102" s="1"/>
       <c r="AL102" s="1"/>
-      <c r="AM102" s="1"/>
-      <c r="AN102" s="1"/>
-      <c r="AO102" s="1"/>
-      <c r="AP102" s="1"/>
-      <c r="AQ102" s="1"/>
-      <c r="AR102" s="1"/>
-      <c r="AS102" s="1"/>
-    </row>
-    <row r="103" spans="1:45" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5677,13 +5310,206 @@
       <c r="AJ103" s="1"/>
       <c r="AK103" s="1"/>
       <c r="AL103" s="1"/>
-      <c r="AM103" s="1"/>
-      <c r="AN103" s="1"/>
-      <c r="AO103" s="1"/>
-      <c r="AP103" s="1"/>
-      <c r="AQ103" s="1"/>
-      <c r="AR103" s="1"/>
-      <c r="AS103" s="1"/>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="1"/>
+      <c r="AG104" s="1"/>
+      <c r="AH104" s="1"/>
+      <c r="AI104" s="1"/>
+      <c r="AJ104" s="1"/>
+      <c r="AK104" s="1"/>
+      <c r="AL104" s="1"/>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="1"/>
+      <c r="AG105" s="1"/>
+      <c r="AH105" s="1"/>
+      <c r="AI105" s="1"/>
+      <c r="AJ105" s="1"/>
+      <c r="AK105" s="1"/>
+      <c r="AL105" s="1"/>
+    </row>
+    <row r="106" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1"/>
+      <c r="AH106" s="1"/>
+      <c r="AI106" s="1"/>
+      <c r="AJ106" s="1"/>
+      <c r="AK106" s="1"/>
+      <c r="AL106" s="1"/>
+    </row>
+    <row r="107" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+      <c r="AF107" s="1"/>
+      <c r="AG107" s="1"/>
+      <c r="AH107" s="1"/>
+      <c r="AI107" s="1"/>
+      <c r="AJ107" s="1"/>
+      <c r="AK107" s="1"/>
+      <c r="AL107" s="1"/>
+    </row>
+    <row r="108" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="1"/>
+      <c r="AJ108" s="1"/>
+      <c r="AK108" s="1"/>
+      <c r="AL108" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5694,17 +5520,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C0762C-5F45-4DA4-B2B6-A78222BA4808}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="S144" sqref="S144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.75" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5716,10 +5546,10 @@
     </row>
     <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -5728,13 +5558,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>1</v>
@@ -5742,13 +5572,13 @@
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5">
         <v>3321</v>
@@ -5763,18 +5593,18 @@
         <v>0.52806989999999998</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5">
         <v>3321</v>
@@ -5794,13 +5624,13 @@
     </row>
     <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5">
         <v>3321</v>
@@ -5820,13 +5650,13 @@
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1">
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5">
         <v>3321</v>
@@ -5846,13 +5676,13 @@
     </row>
     <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
         <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5">
         <v>3321</v>
@@ -5872,13 +5702,13 @@
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1">
         <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5">
         <v>3321</v>
@@ -5898,13 +5728,13 @@
     </row>
     <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1">
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5">
         <v>3321</v>
@@ -5924,13 +5754,13 @@
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D10" s="5">
         <v>3321</v>
@@ -5950,13 +5780,13 @@
     </row>
     <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1">
         <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5">
         <v>3321</v>
@@ -5976,13 +5806,13 @@
     </row>
     <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1">
         <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5">
         <v>3321</v>
@@ -6002,13 +5832,13 @@
     </row>
     <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1">
         <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5">
         <v>3321</v>
@@ -6028,13 +5858,13 @@
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1">
         <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D14" s="5">
         <v>3321</v>
@@ -6054,13 +5884,13 @@
     </row>
     <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1">
         <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5">
         <v>3321</v>
@@ -6080,13 +5910,13 @@
     </row>
     <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1">
         <v>85</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5">
         <v>3321</v>
@@ -6106,13 +5936,13 @@
     </row>
     <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1">
         <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5">
         <v>3321</v>
@@ -6132,13 +5962,13 @@
     </row>
     <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1">
         <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D18" s="5">
         <v>3321</v>
@@ -6158,13 +5988,13 @@
     </row>
     <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1">
         <v>100</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D19" s="5">
         <v>3321</v>
@@ -6184,13 +6014,13 @@
     </row>
     <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
         <v>105</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D20" s="5">
         <v>3321</v>
@@ -6210,13 +6040,13 @@
     </row>
     <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1">
         <v>110</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5">
         <v>3160</v>
@@ -6236,13 +6066,13 @@
     </row>
     <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1">
         <v>115</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D22" s="5">
         <v>3081</v>
@@ -6262,13 +6092,13 @@
     </row>
     <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1">
         <v>120</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D23" s="5">
         <v>2701</v>
@@ -6288,13 +6118,13 @@
     </row>
     <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1">
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D24" s="5">
         <v>3321</v>
@@ -6314,13 +6144,13 @@
     </row>
     <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1">
         <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D25" s="5">
         <v>3321</v>
@@ -6340,13 +6170,13 @@
     </row>
     <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1">
         <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D26" s="5">
         <v>3321</v>
@@ -6366,13 +6196,13 @@
     </row>
     <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1">
         <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D27" s="5">
         <v>3321</v>
@@ -6392,13 +6222,13 @@
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1">
         <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D28" s="5">
         <v>3321</v>
@@ -6418,13 +6248,13 @@
     </row>
     <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1">
         <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D29" s="5">
         <v>3321</v>
@@ -6444,13 +6274,13 @@
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1">
         <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D30" s="5">
         <v>3321</v>
@@ -6470,13 +6300,13 @@
     </row>
     <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1">
         <v>55</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D31" s="5">
         <v>3321</v>
@@ -6496,13 +6326,13 @@
     </row>
     <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1">
         <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D32" s="5">
         <v>3321</v>
@@ -6522,13 +6352,13 @@
     </row>
     <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1">
         <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D33" s="5">
         <v>3321</v>
@@ -6548,13 +6378,13 @@
     </row>
     <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1">
         <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D34" s="5">
         <v>3321</v>
@@ -6574,13 +6404,13 @@
     </row>
     <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1">
         <v>75</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D35" s="5">
         <v>3321</v>
@@ -6600,13 +6430,13 @@
     </row>
     <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1">
         <v>80</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D36" s="5">
         <v>3321</v>
@@ -6626,13 +6456,13 @@
     </row>
     <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1">
         <v>85</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D37" s="5">
         <v>3321</v>
@@ -6652,13 +6482,13 @@
     </row>
     <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1">
         <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D38" s="5">
         <v>3321</v>
@@ -6678,13 +6508,13 @@
     </row>
     <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1">
         <v>95</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D39" s="5">
         <v>3321</v>
@@ -6704,13 +6534,13 @@
     </row>
     <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1">
         <v>100</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D40" s="5">
         <v>3321</v>
@@ -6730,13 +6560,13 @@
     </row>
     <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1">
         <v>105</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D41" s="5">
         <v>3321</v>
@@ -6756,13 +6586,13 @@
     </row>
     <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1">
         <v>110</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D42" s="5">
         <v>3160</v>
@@ -6782,13 +6612,13 @@
     </row>
     <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>115</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D43" s="5">
         <v>3081</v>
@@ -6808,13 +6638,13 @@
     </row>
     <row r="44" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>120</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D44" s="5">
         <v>2701</v>
@@ -6834,13 +6664,13 @@
     </row>
     <row r="45" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>20</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D45" s="5">
         <v>3321</v>
@@ -6860,13 +6690,13 @@
     </row>
     <row r="46" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>25</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D46" s="5">
         <v>3321</v>
@@ -6886,13 +6716,13 @@
     </row>
     <row r="47" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1">
         <v>30</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D47" s="5">
         <v>3321</v>
@@ -6912,13 +6742,13 @@
     </row>
     <row r="48" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1">
         <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D48" s="5">
         <v>3321</v>
@@ -6938,13 +6768,13 @@
     </row>
     <row r="49" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1">
         <v>40</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D49" s="5">
         <v>3321</v>
@@ -6964,13 +6794,13 @@
     </row>
     <row r="50" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B50" s="1">
         <v>45</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D50" s="5">
         <v>3321</v>
@@ -6990,13 +6820,13 @@
     </row>
     <row r="51" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B51" s="1">
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D51" s="5">
         <v>3321</v>
@@ -7016,13 +6846,13 @@
     </row>
     <row r="52" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B52" s="1">
         <v>55</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D52" s="5">
         <v>3321</v>
@@ -7042,13 +6872,13 @@
     </row>
     <row r="53" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B53" s="1">
         <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D53" s="5">
         <v>3321</v>
@@ -7068,13 +6898,13 @@
     </row>
     <row r="54" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B54" s="1">
         <v>65</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D54" s="5">
         <v>3321</v>
@@ -7094,13 +6924,13 @@
     </row>
     <row r="55" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B55" s="1">
         <v>70</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D55" s="5">
         <v>3240</v>
@@ -7120,13 +6950,13 @@
     </row>
     <row r="56" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B56" s="1">
         <v>75</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D56" s="5">
         <v>2775</v>
@@ -7146,13 +6976,13 @@
     </row>
     <row r="57" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B57" s="1">
         <v>80</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D57" s="5">
         <v>2775</v>
@@ -7172,13 +7002,13 @@
     </row>
     <row r="58" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B58" s="1">
         <v>20</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D58" s="5">
         <v>3321</v>
@@ -7198,13 +7028,13 @@
     </row>
     <row r="59" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B59" s="1">
         <v>25</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D59" s="5">
         <v>3321</v>
@@ -7224,13 +7054,13 @@
     </row>
     <row r="60" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B60" s="1">
         <v>30</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D60" s="5">
         <v>3321</v>
@@ -7250,13 +7080,13 @@
     </row>
     <row r="61" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B61" s="1">
         <v>35</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D61" s="5">
         <v>3321</v>
@@ -7276,13 +7106,13 @@
     </row>
     <row r="62" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B62" s="1">
         <v>40</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D62" s="5">
         <v>3321</v>
@@ -7302,13 +7132,13 @@
     </row>
     <row r="63" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B63" s="1">
         <v>45</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D63" s="5">
         <v>3321</v>
@@ -7328,13 +7158,13 @@
     </row>
     <row r="64" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B64" s="1">
         <v>50</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D64" s="5">
         <v>3321</v>
@@ -7354,13 +7184,13 @@
     </row>
     <row r="65" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B65" s="1">
         <v>55</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D65" s="5">
         <v>3321</v>
@@ -7380,13 +7210,13 @@
     </row>
     <row r="66" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B66" s="1">
         <v>60</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D66" s="5">
         <v>3321</v>
@@ -7406,13 +7236,13 @@
     </row>
     <row r="67" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B67" s="1">
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D67" s="5">
         <v>3321</v>
@@ -7432,13 +7262,13 @@
     </row>
     <row r="68" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B68" s="1">
         <v>70</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D68" s="5">
         <v>3240</v>
@@ -7458,13 +7288,13 @@
     </row>
     <row r="69" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B69" s="1">
         <v>75</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D69" s="5">
         <v>2775</v>
@@ -7484,13 +7314,13 @@
     </row>
     <row r="70" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B70" s="1">
         <v>80</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D70" s="5">
         <v>2775</v>
@@ -7505,6 +7335,1774 @@
         <v>0.81193159999999998</v>
       </c>
       <c r="H70" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="1">
+        <v>20</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0.50785590000000003</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0.48217199999999999</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0.53266760000000002</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="1">
+        <v>25</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.52828949999999997</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0.50332069999999995</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0.55237689999999995</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="1">
+        <v>30</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="5">
+        <v>3320</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.53438410000000003</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0.50963060000000004</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0.55825380000000002</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="1">
+        <v>35</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.53902119999999998</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.51444000000000001</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0.56271740000000003</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" s="1">
+        <v>40</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" s="5">
+        <v>3320</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.54665779999999997</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.52235370000000003</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0.57007450000000004</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="5">
+        <v>3320</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0.55668099999999998</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.5327518</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0.57972060000000003</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="1">
+        <v>50</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.55896029999999997</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.53512110000000002</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0.58191000000000004</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="1">
+        <v>55</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.56640069999999998</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.54284569999999999</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0.58906519999999996</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" s="1">
+        <v>60</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.56935460000000004</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0.5459136</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0.59190489999999996</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" s="1">
+        <v>65</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.57823040000000003</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0.55513559999999995</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0.60043429999999998</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" s="1">
+        <v>70</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.57758310000000002</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0.55446280000000003</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.59981240000000002</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" s="1">
+        <v>75</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.57648980000000005</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0.55332669999999995</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0.59876209999999996</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="1">
+        <v>80</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0.57737059999999996</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0.55424200000000001</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0.59960829999999998</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="1">
+        <v>85</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.57779179999999997</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0.55467979999999995</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0.60001300000000002</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="1">
+        <v>90</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0.5856249</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0.56282279999999996</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0.60753630000000003</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="1">
+        <v>95</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.58819069999999996</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0.56549119999999997</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0.60999990000000004</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="1">
+        <v>100</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0.5900166</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0.56739030000000001</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0.61175270000000004</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" s="1">
+        <v>105</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0.59402250000000001</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0.57155769999999995</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0.61559759999999997</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" s="1">
+        <v>110</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.59422059999999999</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0.57176369999999999</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0.61578759999999999</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="1">
+        <v>115</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.59334140000000002</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0.57084900000000005</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0.61494389999999999</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="1">
+        <v>120</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0.59352859999999996</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0.57104379999999999</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0.61512359999999999</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="1">
+        <v>20</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D92" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.59162749999999997</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0.56906590000000001</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0.61329889999999998</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" s="1">
+        <v>25</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.60500580000000004</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0.5829898</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0.62613410000000003</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" s="1">
+        <v>30</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.61176580000000003</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0.59003030000000001</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0.63261520000000004</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="1">
+        <v>35</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.61216139999999997</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0.59044229999999998</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0.63299439999999996</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" s="1">
+        <v>40</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.61628070000000001</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0.5947344</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0.63694229999999996</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.62454279999999995</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0.60334650000000001</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0.64485720000000002</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98" s="1">
+        <v>50</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.62680179999999996</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0.60570210000000002</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0.6470205</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" s="1">
+        <v>55</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.62616360000000004</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.60503660000000004</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.64640949999999997</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" s="1">
+        <v>60</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.62507040000000003</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0.60389669999999995</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0.64536249999999995</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" s="1">
+        <v>65</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D101" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0.63346959999999997</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0.61265720000000001</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0.65340410000000004</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" s="1">
+        <v>70</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.63313850000000005</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0.61231179999999996</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0.65308719999999998</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" s="1">
+        <v>75</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D103" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0.63032909999999998</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0.60938099999999995</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0.65039780000000003</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" s="1">
+        <v>80</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0.63161690000000004</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0.61072439999999995</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0.65163070000000001</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="1">
+        <v>85</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0.63232999999999995</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0.61146829999999996</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0.65231329999999998</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" s="1">
+        <v>90</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0.63291459999999999</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0.61207809999999996</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0.65287289999999998</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" s="1">
+        <v>95</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D107" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0.63360490000000003</v>
+      </c>
+      <c r="F107" s="3">
+        <v>0.61279830000000002</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0.65353360000000005</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" s="1">
+        <v>100</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0.63458150000000002</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0.61381719999999995</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0.6544683</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" s="1">
+        <v>105</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D109" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0.63185910000000001</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0.61097699999999999</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0.65186250000000001</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="1">
+        <v>110</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D110" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0.63265229999999995</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0.61180449999999997</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0.65262180000000003</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B111" s="1">
+        <v>115</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D111" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0.63296200000000002</v>
+      </c>
+      <c r="F111" s="3">
+        <v>0.61212759999999999</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0.65291829999999995</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112" s="1">
+        <v>120</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D112" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0.63197709999999996</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0.61110010000000003</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0.65197550000000004</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B113" s="1">
+        <v>20</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D113" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0.59588529999999995</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0.57349600000000001</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0.61738510000000002</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B114" s="1">
+        <v>25</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.61363840000000003</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0.59198119999999999</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0.63441009999999998</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B115" s="1">
+        <v>30</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D115" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0.6270964</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0.60600940000000003</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0.64730270000000001</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116" s="1">
+        <v>35</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D116" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0.63749250000000002</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0.61685489999999998</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0.65725409999999995</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" s="1">
+        <v>40</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D117" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0.64101560000000002</v>
+      </c>
+      <c r="F117" s="3">
+        <v>0.62053210000000003</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0.66062500000000002</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D118" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0.64527440000000003</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0.62497840000000005</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0.66469869999999998</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B119" s="1">
+        <v>50</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D119" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0.64929809999999999</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0.62918039999999997</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0.66854639999999999</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B120" s="1">
+        <v>55</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D120" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0.65785720000000003</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0.63812270000000004</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0.67672779999999999</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" s="1">
+        <v>60</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D121" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0.65609170000000006</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0.6362778</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0.67504070000000005</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122" s="1">
+        <v>65</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D122" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0.65629899999999997</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0.63649440000000002</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0.67523880000000003</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B123" s="1">
+        <v>70</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0.66111450000000005</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0.64152730000000002</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0.67984009999999995</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B124" s="1">
+        <v>75</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D124" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0.66426529999999995</v>
+      </c>
+      <c r="F124" s="3">
+        <v>0.64482130000000004</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0.68285010000000002</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B125" s="1">
+        <v>80</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D125" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0.66924209999999995</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0.65002570000000004</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0.68760310000000002</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B126" s="1">
+        <v>20</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D126" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0.71290379999999998</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0.69576179999999999</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0.7292343</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B127" s="1">
+        <v>25</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D127" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0.71859479999999998</v>
+      </c>
+      <c r="F127" s="3">
+        <v>0.70173339999999995</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0.73465170000000002</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B128" s="1">
+        <v>30</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D128" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0.72842090000000004</v>
+      </c>
+      <c r="F128" s="3">
+        <v>0.71204959999999995</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0.74400060000000001</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" s="1">
+        <v>35</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D129" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E129" s="3">
+        <v>0.73726769999999997</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0.72134379999999998</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0.75241259999999999</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B130" s="1">
+        <v>40</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D130" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0.73670919999999995</v>
+      </c>
+      <c r="F130" s="3">
+        <v>0.72075679999999998</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0.75188169999999999</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D131" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0.73784280000000002</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0.72194809999999998</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0.7529593</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B132" s="1">
+        <v>50</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D132" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E132" s="3">
+        <v>0.73803640000000004</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0.72215149999999995</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0.75314329999999996</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B133" s="1">
+        <v>55</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D133" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0.73859200000000003</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0.72273549999999998</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0.75367139999999999</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B134" s="1">
+        <v>60</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D134" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E134" s="3">
+        <v>0.73820260000000004</v>
+      </c>
+      <c r="F134" s="3">
+        <v>0.72232620000000003</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0.75330129999999995</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B135" s="1">
+        <v>65</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D135" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0.7403267</v>
+      </c>
+      <c r="F135" s="3">
+        <v>0.7245587</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0.75532010000000005</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B136" s="1">
+        <v>70</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D136" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.74327399999999999</v>
+      </c>
+      <c r="F136" s="3">
+        <v>0.727657</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0.75812089999999999</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B137" s="1">
+        <v>75</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D137" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0.74276180000000003</v>
+      </c>
+      <c r="F137" s="3">
+        <v>0.7271185</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0.75763420000000004</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B138" s="1">
+        <v>80</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D138" s="5">
+        <v>3321</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0.7442801</v>
+      </c>
+      <c r="F138" s="3">
+        <v>0.72871470000000005</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0.7590768</v>
+      </c>
+      <c r="H138" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/Supplementary Tables.xlsx
+++ b/data/Supplementary Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ziyi Ding\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ziyi Ding\Desktop\BRM drafts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F046AD97-54D7-4516-8168-644391CC4CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3C7104-44C1-4730-A347-6FC177A49A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14925" yWindow="570" windowWidth="13875" windowHeight="14460" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplementary Table 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="49">
   <si>
     <t>Variables</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,34 +140,6 @@
   </si>
   <si>
     <t>&lt; .001</t>
-  </si>
-  <si>
-    <t>4756</t>
-  </si>
-  <si>
-    <t>4756</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2274</t>
-  </si>
-  <si>
-    <t>2274</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>347</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SWOW-ZH R1 strength</t>
@@ -291,34 +263,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Supplementary Table 1 Partial Correlations between Lexical Decision Tasks and Word Accessibility Measurements</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supplementary Table 2 Correlation Coefficients for Relatedness judgment Tasks and Semantic Similarity Tasks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supplementary Table 3 Correlation Coefficients for Relatedness Judgment Tasks and Random Walk Estimates in Different Numbers of Participants</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Relatedness Ratings (Abstract)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPT-3.5-turbo R1 RW</t>
-  </si>
-  <si>
-    <t>GPT-3.5-turbo R1 RW</t>
+    <r>
+      <t xml:space="preserve">Supplementary Table 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Partial Correlations between Lexical Decision Tasks and Word Accessibility Measurements</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPT-3.5-turbo R123 RW</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Supplementary Table 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Correlation Coefficients for Relatedness judgment Tasks and Semantic Similarity Tasks</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPT-3.5-turbo R123 RW</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Supplementary Table 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Correlation Coefficients for Relatedness Judgment Tasks and Random Walk Estimates in Different Numbers of Participants</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT-4o R1 RW</t>
+  </si>
+  <si>
+    <t>GPT-4o R123 RW</t>
   </si>
 </sst>
 </file>
@@ -331,7 +342,7 @@
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +383,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -381,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -389,11 +407,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -405,6 +443,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -685,19 +732,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="8" customWidth="1"/>
     <col min="3" max="3" width="54.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
+      <c r="A1" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -708,28 +765,28 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -743,8 +800,8 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
+      <c r="D3" s="18">
+        <v>4756</v>
       </c>
       <c r="E3" s="3">
         <v>-0.51600000000000001</v>
@@ -769,8 +826,8 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
+      <c r="D4" s="18">
+        <v>4756</v>
       </c>
       <c r="E4" s="3">
         <v>-0.52</v>
@@ -790,13 +847,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
+      <c r="D5" s="18">
+        <v>4756</v>
       </c>
       <c r="E5" s="3">
         <v>-0.52600000000000002</v>
@@ -816,13 +873,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
+      <c r="D6" s="18">
+        <v>4756</v>
       </c>
       <c r="E6" s="3">
         <v>-0.46800000000000003</v>
@@ -842,13 +899,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
+      <c r="D7" s="18">
+        <v>4756</v>
       </c>
       <c r="E7" s="3">
         <v>-0.47499999999999998</v>
@@ -871,10 +928,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="D8" s="18">
+        <v>4756</v>
       </c>
       <c r="E8" s="3">
         <v>-0.378</v>
@@ -897,10 +954,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="D9" s="18">
+        <v>4756</v>
       </c>
       <c r="E9" s="3">
         <v>-0.38300000000000001</v>
@@ -920,13 +977,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="D10" s="18">
+        <v>4756</v>
       </c>
       <c r="E10" s="3">
         <v>-0.39</v>
@@ -946,13 +1003,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D11" s="18">
+        <v>4756</v>
       </c>
       <c r="E11" s="3">
         <v>-0.246</v>
@@ -972,13 +1029,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D12" s="18">
+        <v>4756</v>
       </c>
       <c r="E12" s="3">
         <v>-0.255</v>
@@ -1003,8 +1060,8 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
+      <c r="D13" s="18">
+        <v>4756</v>
       </c>
       <c r="E13" s="3">
         <v>-0.51100000000000001</v>
@@ -1029,8 +1086,8 @@
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
+      <c r="D14" s="18">
+        <v>4756</v>
       </c>
       <c r="E14" s="3">
         <v>-0.49299999999999999</v>
@@ -1050,13 +1107,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
+      <c r="D15" s="18">
+        <v>4756</v>
       </c>
       <c r="E15" s="3">
         <v>-0.501</v>
@@ -1076,13 +1133,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
+      <c r="D16" s="18">
+        <v>4756</v>
       </c>
       <c r="E16" s="3">
         <v>-0.51600000000000001</v>
@@ -1102,13 +1159,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
+      <c r="D17" s="18">
+        <v>4756</v>
       </c>
       <c r="E17" s="3">
         <v>-0.52900000000000003</v>
@@ -1131,10 +1188,10 @@
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="D18" s="18">
+        <v>4756</v>
       </c>
       <c r="E18" s="3">
         <v>-0.3</v>
@@ -1157,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="D19" s="18">
+        <v>4756</v>
       </c>
       <c r="E19" s="3">
         <v>-0.27500000000000002</v>
@@ -1180,13 +1237,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="D20" s="18">
+        <v>4756</v>
       </c>
       <c r="E20" s="3">
         <v>-0.28100000000000003</v>
@@ -1206,13 +1263,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="D21" s="18">
+        <v>4756</v>
       </c>
       <c r="E21" s="3">
         <v>-0.249</v>
@@ -1232,13 +1289,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="D22" s="18">
+        <v>4756</v>
       </c>
       <c r="E22" s="3">
         <v>-0.25900000000000001</v>
@@ -1263,8 +1320,8 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>32</v>
+      <c r="D23" s="18">
+        <v>4756</v>
       </c>
       <c r="E23" s="3">
         <v>-0.52100000000000002</v>
@@ -1289,8 +1346,8 @@
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>32</v>
+      <c r="D24" s="18">
+        <v>4756</v>
       </c>
       <c r="E24" s="3">
         <v>-0.53400000000000003</v>
@@ -1310,13 +1367,13 @@
         <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>31</v>
+      <c r="D25" s="18">
+        <v>4756</v>
       </c>
       <c r="E25" s="3">
         <v>-0.53800000000000003</v>
@@ -1336,13 +1393,13 @@
         <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>31</v>
+      <c r="D26" s="18">
+        <v>4756</v>
       </c>
       <c r="E26" s="3">
         <v>-0.41699999999999998</v>
@@ -1362,13 +1419,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>31</v>
+      <c r="D27" s="18">
+        <v>4756</v>
       </c>
       <c r="E27" s="3">
         <v>-0.43099999999999999</v>
@@ -1391,10 +1448,10 @@
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="D28" s="18">
+        <v>4756</v>
       </c>
       <c r="E28" s="3">
         <v>-0.437</v>
@@ -1417,10 +1474,10 @@
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="D29" s="18">
+        <v>4756</v>
       </c>
       <c r="E29" s="3">
         <v>-0.42899999999999999</v>
@@ -1440,13 +1497,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="D30" s="18">
+        <v>4756</v>
       </c>
       <c r="E30" s="3">
         <v>-0.437</v>
@@ -1466,13 +1523,13 @@
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D31" s="18">
+        <v>4756</v>
       </c>
       <c r="E31" s="3">
         <v>-0.23499999999999999</v>
@@ -1492,13 +1549,13 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D32" s="18">
+        <v>4756</v>
       </c>
       <c r="E32" s="3">
         <v>-0.25900000000000001</v>
@@ -1523,8 +1580,8 @@
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>34</v>
+      <c r="D33" s="18">
+        <v>4756</v>
       </c>
       <c r="E33" s="3">
         <v>-0.56799999999999995</v>
@@ -1549,8 +1606,8 @@
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>34</v>
+      <c r="D34" s="18">
+        <v>4756</v>
       </c>
       <c r="E34" s="3">
         <v>-0.61899999999999999</v>
@@ -1570,13 +1627,13 @@
         <v>15</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>33</v>
+      <c r="D35" s="18">
+        <v>4756</v>
       </c>
       <c r="E35" s="3">
         <v>-0.61699999999999999</v>
@@ -1596,13 +1653,13 @@
         <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>33</v>
+      <c r="D36" s="18">
+        <v>4756</v>
       </c>
       <c r="E36" s="3">
         <v>-0.50900000000000001</v>
@@ -1622,13 +1679,13 @@
         <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>33</v>
+      <c r="D37" s="18">
+        <v>4756</v>
       </c>
       <c r="E37" s="3">
         <v>-0.505</v>
@@ -1651,10 +1708,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="D38" s="18">
+        <v>4756</v>
       </c>
       <c r="E38" s="3">
         <v>-0.375</v>
@@ -1677,10 +1734,10 @@
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="D39" s="18">
+        <v>4756</v>
       </c>
       <c r="E39" s="3">
         <v>-0.437</v>
@@ -1700,13 +1757,13 @@
         <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="D40" s="18">
+        <v>4756</v>
       </c>
       <c r="E40" s="3">
         <v>-0.438</v>
@@ -1726,13 +1783,13 @@
         <v>15</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D41" s="18">
+        <v>4756</v>
       </c>
       <c r="E41" s="3">
         <v>-0.13800000000000001</v>
@@ -1748,44 +1805,47 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="B42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="19">
+        <v>4756</v>
+      </c>
+      <c r="E42" s="14">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="14">
         <v>-0.23499999999999999</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="14">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E6E3BF-169C-40AF-9ABE-1F1C5BD901FE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AL108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1793,14 +1853,16 @@
     <col min="1" max="1" width="31.375" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="9"/>
@@ -1810,35 +1872,35 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C3" s="10">
         <v>905</v>
@@ -1859,7 +1921,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -1883,7 +1945,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -1907,10 +1969,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C6" s="10">
         <v>2881</v>
@@ -1931,10 +1993,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10">
         <v>2682</v>
@@ -1955,7 +2017,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -1979,7 +2041,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>24</v>
@@ -2003,10 +2065,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C10" s="10">
         <v>3219</v>
@@ -2027,10 +2089,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C11" s="10">
         <v>2084</v>
@@ -2051,10 +2113,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10">
         <v>3248</v>
@@ -2075,10 +2137,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C13" s="10">
         <v>3321</v>
@@ -2099,10 +2161,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C14" s="10">
         <v>492</v>
@@ -2123,7 +2185,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>19</v>
@@ -2147,7 +2209,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
@@ -2171,10 +2233,10 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C17" s="10">
         <v>2616</v>
@@ -2195,10 +2257,10 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C18" s="10">
         <v>1923</v>
@@ -2219,7 +2281,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
@@ -2243,7 +2305,7 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>24</v>
@@ -2296,10 +2358,10 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C21" s="10">
         <v>3119</v>
@@ -2349,10 +2411,10 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C22" s="10">
         <v>2324</v>
@@ -2402,10 +2464,10 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C23" s="10">
         <v>3262</v>
@@ -2455,10 +2517,10 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C24" s="10">
         <v>3320</v>
@@ -2508,10 +2570,10 @@
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C25" s="10">
         <v>356</v>
@@ -2561,7 +2623,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
@@ -2614,7 +2676,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>21</v>
@@ -2667,10 +2729,10 @@
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C28" s="10">
         <v>510</v>
@@ -2720,10 +2782,10 @@
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C29" s="10">
         <v>490</v>
@@ -2773,7 +2835,7 @@
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>22</v>
@@ -2826,7 +2888,7 @@
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>24</v>
@@ -2879,10 +2941,10 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C32" s="10">
         <v>523</v>
@@ -2932,10 +2994,10 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C33" s="10">
         <v>496</v>
@@ -2985,10 +3047,10 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C34" s="10">
         <v>534</v>
@@ -3036,25 +3098,25 @@
       <c r="AL34" s="1"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="10">
+      <c r="A35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="15">
         <v>537</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="16">
         <v>0.45637877737659899</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="16">
         <v>0.38838599790253298</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="16">
         <v>0.52232358635089404</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="13" t="s">
         <v>4</v>
       </c>
       <c r="H35" s="6"/>
@@ -5514,27 +5576,33 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C0762C-5F45-4DA4-B2B6-A78222BA4808}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="S144" sqref="S144"/>
+    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.75" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5545,34 +5613,34 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
@@ -5598,7 +5666,7 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1">
         <v>25</v>
@@ -5624,7 +5692,7 @@
     </row>
     <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
         <v>30</v>
@@ -5650,7 +5718,7 @@
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1">
         <v>35</v>
@@ -5676,7 +5744,7 @@
     </row>
     <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1">
         <v>40</v>
@@ -5702,7 +5770,7 @@
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1">
         <v>45</v>
@@ -5728,7 +5796,7 @@
     </row>
     <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1">
         <v>50</v>
@@ -5754,7 +5822,7 @@
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1">
         <v>55</v>
@@ -5780,7 +5848,7 @@
     </row>
     <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1">
         <v>60</v>
@@ -5806,7 +5874,7 @@
     </row>
     <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1">
         <v>65</v>
@@ -5832,7 +5900,7 @@
     </row>
     <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
         <v>70</v>
@@ -5858,7 +5926,7 @@
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1">
         <v>75</v>
@@ -5884,7 +5952,7 @@
     </row>
     <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1">
         <v>80</v>
@@ -5910,7 +5978,7 @@
     </row>
     <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>85</v>
@@ -5936,7 +6004,7 @@
     </row>
     <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1">
         <v>90</v>
@@ -5962,7 +6030,7 @@
     </row>
     <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
         <v>95</v>
@@ -5988,7 +6056,7 @@
     </row>
     <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>100</v>
@@ -6014,7 +6082,7 @@
     </row>
     <row r="20" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1">
         <v>105</v>
@@ -6040,7 +6108,7 @@
     </row>
     <row r="21" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1">
         <v>110</v>
@@ -6066,7 +6134,7 @@
     </row>
     <row r="22" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1">
         <v>115</v>
@@ -6092,7 +6160,7 @@
     </row>
     <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1">
         <v>120</v>
@@ -6118,7 +6186,7 @@
     </row>
     <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1">
         <v>20</v>
@@ -6144,7 +6212,7 @@
     </row>
     <row r="25" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1">
         <v>25</v>
@@ -6170,7 +6238,7 @@
     </row>
     <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1">
         <v>30</v>
@@ -6196,7 +6264,7 @@
     </row>
     <row r="27" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1">
         <v>35</v>
@@ -6222,7 +6290,7 @@
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1">
         <v>40</v>
@@ -6248,7 +6316,7 @@
     </row>
     <row r="29" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1">
         <v>45</v>
@@ -6274,7 +6342,7 @@
     </row>
     <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1">
         <v>50</v>
@@ -6300,7 +6368,7 @@
     </row>
     <row r="31" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1">
         <v>55</v>
@@ -6326,7 +6394,7 @@
     </row>
     <row r="32" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1">
         <v>60</v>
@@ -6352,7 +6420,7 @@
     </row>
     <row r="33" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1">
         <v>65</v>
@@ -6378,7 +6446,7 @@
     </row>
     <row r="34" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1">
         <v>70</v>
@@ -6404,7 +6472,7 @@
     </row>
     <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>75</v>
@@ -6430,7 +6498,7 @@
     </row>
     <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>80</v>
@@ -6456,7 +6524,7 @@
     </row>
     <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>85</v>
@@ -6482,7 +6550,7 @@
     </row>
     <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1">
         <v>90</v>
@@ -6508,7 +6576,7 @@
     </row>
     <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1">
         <v>95</v>
@@ -6534,7 +6602,7 @@
     </row>
     <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1">
         <v>100</v>
@@ -6560,7 +6628,7 @@
     </row>
     <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B41" s="1">
         <v>105</v>
@@ -6586,7 +6654,7 @@
     </row>
     <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1">
         <v>110</v>
@@ -6612,7 +6680,7 @@
     </row>
     <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B43" s="1">
         <v>115</v>
@@ -6638,7 +6706,7 @@
     </row>
     <row r="44" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1">
         <v>120</v>
@@ -6664,7 +6732,7 @@
     </row>
     <row r="45" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1">
         <v>20</v>
@@ -6690,7 +6758,7 @@
     </row>
     <row r="46" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B46" s="1">
         <v>25</v>
@@ -6716,7 +6784,7 @@
     </row>
     <row r="47" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B47" s="1">
         <v>30</v>
@@ -6742,7 +6810,7 @@
     </row>
     <row r="48" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B48" s="1">
         <v>35</v>
@@ -6768,7 +6836,7 @@
     </row>
     <row r="49" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B49" s="1">
         <v>40</v>
@@ -6794,7 +6862,7 @@
     </row>
     <row r="50" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B50" s="1">
         <v>45</v>
@@ -6820,7 +6888,7 @@
     </row>
     <row r="51" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B51" s="1">
         <v>50</v>
@@ -6846,7 +6914,7 @@
     </row>
     <row r="52" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B52" s="1">
         <v>55</v>
@@ -6872,7 +6940,7 @@
     </row>
     <row r="53" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B53" s="1">
         <v>60</v>
@@ -6898,7 +6966,7 @@
     </row>
     <row r="54" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B54" s="1">
         <v>65</v>
@@ -6924,7 +6992,7 @@
     </row>
     <row r="55" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B55" s="1">
         <v>70</v>
@@ -6950,7 +7018,7 @@
     </row>
     <row r="56" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B56" s="1">
         <v>75</v>
@@ -6976,7 +7044,7 @@
     </row>
     <row r="57" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B57" s="1">
         <v>80</v>
@@ -7002,7 +7070,7 @@
     </row>
     <row r="58" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B58" s="1">
         <v>20</v>
@@ -7028,7 +7096,7 @@
     </row>
     <row r="59" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B59" s="1">
         <v>25</v>
@@ -7054,7 +7122,7 @@
     </row>
     <row r="60" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B60" s="1">
         <v>30</v>
@@ -7080,7 +7148,7 @@
     </row>
     <row r="61" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B61" s="1">
         <v>35</v>
@@ -7106,7 +7174,7 @@
     </row>
     <row r="62" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B62" s="1">
         <v>40</v>
@@ -7132,7 +7200,7 @@
     </row>
     <row r="63" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B63" s="1">
         <v>45</v>
@@ -7158,7 +7226,7 @@
     </row>
     <row r="64" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B64" s="1">
         <v>50</v>
@@ -7184,7 +7252,7 @@
     </row>
     <row r="65" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B65" s="1">
         <v>55</v>
@@ -7210,7 +7278,7 @@
     </row>
     <row r="66" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B66" s="1">
         <v>60</v>
@@ -7236,7 +7304,7 @@
     </row>
     <row r="67" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B67" s="1">
         <v>65</v>
@@ -7262,7 +7330,7 @@
     </row>
     <row r="68" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B68" s="1">
         <v>70</v>
@@ -7288,7 +7356,7 @@
     </row>
     <row r="69" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B69" s="1">
         <v>75</v>
@@ -7314,7 +7382,7 @@
     </row>
     <row r="70" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B70" s="1">
         <v>80</v>
@@ -7340,25 +7408,25 @@
     </row>
     <row r="71" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B71" s="1">
         <v>20</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D71" s="5">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="E71" s="3">
-        <v>0.50785590000000003</v>
+        <v>0.504</v>
       </c>
       <c r="F71" s="3">
-        <v>0.48217199999999999</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="G71" s="3">
-        <v>0.53266760000000002</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>4</v>
@@ -7366,25 +7434,25 @@
     </row>
     <row r="72" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B72" s="1">
         <v>25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D72" s="5">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="E72" s="3">
-        <v>0.52828949999999997</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="F72" s="3">
-        <v>0.50332069999999995</v>
+        <v>0.49</v>
       </c>
       <c r="G72" s="3">
-        <v>0.55237689999999995</v>
+        <v>0.54</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>4</v>
@@ -7392,25 +7460,25 @@
     </row>
     <row r="73" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B73" s="1">
         <v>30</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D73" s="5">
         <v>3320</v>
       </c>
       <c r="E73" s="3">
-        <v>0.53438410000000003</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="F73" s="3">
-        <v>0.50963060000000004</v>
+        <v>0.496</v>
       </c>
       <c r="G73" s="3">
-        <v>0.55825380000000002</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>4</v>
@@ -7418,25 +7486,25 @@
     </row>
     <row r="74" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B74" s="1">
         <v>35</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D74" s="5">
         <v>3321</v>
       </c>
       <c r="E74" s="3">
-        <v>0.53902119999999998</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="F74" s="3">
-        <v>0.51444000000000001</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="G74" s="3">
-        <v>0.56271740000000003</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>4</v>
@@ -7444,25 +7512,25 @@
     </row>
     <row r="75" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B75" s="1">
         <v>40</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D75" s="5">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="E75" s="3">
-        <v>0.54665779999999997</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="F75" s="3">
-        <v>0.52235370000000003</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="G75" s="3">
-        <v>0.57007450000000004</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>4</v>
@@ -7470,25 +7538,25 @@
     </row>
     <row r="76" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B76" s="1">
         <v>45</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D76" s="5">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="E76" s="3">
-        <v>0.55668099999999998</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="F76" s="3">
-        <v>0.5327518</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="G76" s="3">
-        <v>0.57972060000000003</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>4</v>
@@ -7496,25 +7564,25 @@
     </row>
     <row r="77" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B77" s="1">
         <v>50</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D77" s="5">
         <v>3321</v>
       </c>
       <c r="E77" s="3">
-        <v>0.55896029999999997</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="F77" s="3">
-        <v>0.53512110000000002</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="G77" s="3">
-        <v>0.58191000000000004</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>4</v>
@@ -7522,25 +7590,25 @@
     </row>
     <row r="78" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B78" s="1">
         <v>55</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D78" s="5">
         <v>3321</v>
       </c>
       <c r="E78" s="3">
-        <v>0.56640069999999998</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="F78" s="3">
-        <v>0.54284569999999999</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="G78" s="3">
-        <v>0.58906519999999996</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>4</v>
@@ -7548,25 +7616,25 @@
     </row>
     <row r="79" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B79" s="1">
         <v>60</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D79" s="5">
         <v>3321</v>
       </c>
       <c r="E79" s="3">
-        <v>0.56935460000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F79" s="3">
-        <v>0.5459136</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="G79" s="3">
-        <v>0.59190489999999996</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>4</v>
@@ -7574,25 +7642,25 @@
     </row>
     <row r="80" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B80" s="1">
         <v>65</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D80" s="5">
         <v>3321</v>
       </c>
       <c r="E80" s="3">
-        <v>0.57823040000000003</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="F80" s="3">
-        <v>0.55513559999999995</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="G80" s="3">
-        <v>0.60043429999999998</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>4</v>
@@ -7600,25 +7668,25 @@
     </row>
     <row r="81" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B81" s="1">
         <v>70</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D81" s="5">
         <v>3321</v>
       </c>
       <c r="E81" s="3">
-        <v>0.57758310000000002</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="F81" s="3">
-        <v>0.55446280000000003</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="G81" s="3">
-        <v>0.59981240000000002</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>4</v>
@@ -7626,25 +7694,25 @@
     </row>
     <row r="82" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B82" s="1">
         <v>75</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D82" s="5">
         <v>3321</v>
       </c>
       <c r="E82" s="3">
-        <v>0.57648980000000005</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="F82" s="3">
-        <v>0.55332669999999995</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="G82" s="3">
-        <v>0.59876209999999996</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>4</v>
@@ -7652,25 +7720,25 @@
     </row>
     <row r="83" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B83" s="1">
         <v>80</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D83" s="5">
         <v>3321</v>
       </c>
       <c r="E83" s="3">
-        <v>0.57737059999999996</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="F83" s="3">
-        <v>0.55424200000000001</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="G83" s="3">
-        <v>0.59960829999999998</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>4</v>
@@ -7678,25 +7746,25 @@
     </row>
     <row r="84" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B84" s="1">
         <v>85</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D84" s="5">
         <v>3321</v>
       </c>
       <c r="E84" s="3">
-        <v>0.57779179999999997</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="F84" s="3">
-        <v>0.55467979999999995</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="G84" s="3">
-        <v>0.60001300000000002</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>4</v>
@@ -7704,25 +7772,25 @@
     </row>
     <row r="85" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B85" s="1">
         <v>90</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D85" s="5">
         <v>3321</v>
       </c>
       <c r="E85" s="3">
-        <v>0.5856249</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="F85" s="3">
-        <v>0.56282279999999996</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="G85" s="3">
-        <v>0.60753630000000003</v>
+        <v>0.61</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>4</v>
@@ -7730,25 +7798,25 @@
     </row>
     <row r="86" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B86" s="1">
         <v>95</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D86" s="5">
         <v>3321</v>
       </c>
       <c r="E86" s="3">
-        <v>0.58819069999999996</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="F86" s="3">
-        <v>0.56549119999999997</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="G86" s="3">
-        <v>0.60999990000000004</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>4</v>
@@ -7756,25 +7824,25 @@
     </row>
     <row r="87" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B87" s="1">
         <v>100</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D87" s="5">
         <v>3321</v>
       </c>
       <c r="E87" s="3">
-        <v>0.5900166</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="F87" s="3">
-        <v>0.56739030000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G87" s="3">
-        <v>0.61175270000000004</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>4</v>
@@ -7782,25 +7850,25 @@
     </row>
     <row r="88" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B88" s="1">
         <v>105</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D88" s="5">
         <v>3321</v>
       </c>
       <c r="E88" s="3">
-        <v>0.59402250000000001</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="F88" s="3">
-        <v>0.57155769999999995</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="G88" s="3">
-        <v>0.61559759999999997</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>4</v>
@@ -7808,25 +7876,25 @@
     </row>
     <row r="89" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B89" s="1">
         <v>110</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D89" s="5">
         <v>3321</v>
       </c>
       <c r="E89" s="3">
-        <v>0.59422059999999999</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="F89" s="3">
-        <v>0.57176369999999999</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G89" s="3">
-        <v>0.61578759999999999</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>4</v>
@@ -7834,25 +7902,25 @@
     </row>
     <row r="90" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B90" s="1">
         <v>115</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D90" s="5">
         <v>3321</v>
       </c>
       <c r="E90" s="3">
-        <v>0.59334140000000002</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="F90" s="3">
-        <v>0.57084900000000005</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="G90" s="3">
-        <v>0.61494389999999999</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>4</v>
@@ -7860,25 +7928,25 @@
     </row>
     <row r="91" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B91" s="1">
         <v>120</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D91" s="5">
         <v>3321</v>
       </c>
       <c r="E91" s="3">
-        <v>0.59352859999999996</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="F91" s="3">
-        <v>0.57104379999999999</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="G91" s="3">
-        <v>0.61512359999999999</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>4</v>
@@ -7886,25 +7954,25 @@
     </row>
     <row r="92" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B92" s="1">
         <v>20</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D92" s="5">
         <v>3321</v>
       </c>
       <c r="E92" s="3">
-        <v>0.59162749999999997</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="F92" s="3">
-        <v>0.56906590000000001</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G92" s="3">
-        <v>0.61329889999999998</v>
+        <v>0.623</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>4</v>
@@ -7912,25 +7980,25 @@
     </row>
     <row r="93" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B93" s="1">
         <v>25</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D93" s="5">
         <v>3321</v>
       </c>
       <c r="E93" s="3">
-        <v>0.60500580000000004</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="F93" s="3">
-        <v>0.5829898</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="G93" s="3">
-        <v>0.62613410000000003</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>4</v>
@@ -7938,25 +8006,25 @@
     </row>
     <row r="94" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B94" s="1">
         <v>30</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D94" s="5">
         <v>3321</v>
       </c>
       <c r="E94" s="3">
-        <v>0.61176580000000003</v>
+        <v>0.623</v>
       </c>
       <c r="F94" s="3">
-        <v>0.59003030000000001</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="G94" s="3">
-        <v>0.63261520000000004</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>4</v>
@@ -7964,25 +8032,25 @@
     </row>
     <row r="95" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B95" s="1">
         <v>35</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D95" s="5">
         <v>3321</v>
       </c>
       <c r="E95" s="3">
-        <v>0.61216139999999997</v>
+        <v>0.628</v>
       </c>
       <c r="F95" s="3">
-        <v>0.59044229999999998</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="G95" s="3">
-        <v>0.63299439999999996</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>4</v>
@@ -7990,25 +8058,25 @@
     </row>
     <row r="96" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B96" s="1">
         <v>40</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D96" s="5">
         <v>3321</v>
       </c>
       <c r="E96" s="3">
-        <v>0.61628070000000001</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="F96" s="3">
-        <v>0.5947344</v>
+        <v>0.61</v>
       </c>
       <c r="G96" s="3">
-        <v>0.63694229999999996</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>4</v>
@@ -8016,25 +8084,25 @@
     </row>
     <row r="97" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B97" s="1">
         <v>45</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D97" s="5">
         <v>3321</v>
       </c>
       <c r="E97" s="3">
-        <v>0.62454279999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="F97" s="3">
-        <v>0.60334650000000001</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="G97" s="3">
-        <v>0.64485720000000002</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>4</v>
@@ -8042,25 +8110,25 @@
     </row>
     <row r="98" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B98" s="1">
         <v>50</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D98" s="5">
         <v>3321</v>
       </c>
       <c r="E98" s="3">
-        <v>0.62680179999999996</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="F98" s="3">
-        <v>0.60570210000000002</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="G98" s="3">
-        <v>0.6470205</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>4</v>
@@ -8068,25 +8136,25 @@
     </row>
     <row r="99" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B99" s="1">
         <v>55</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D99" s="5">
         <v>3321</v>
       </c>
       <c r="E99" s="3">
-        <v>0.62616360000000004</v>
+        <v>0.63</v>
       </c>
       <c r="F99" s="3">
-        <v>0.60503660000000004</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="G99" s="3">
-        <v>0.64640949999999997</v>
+        <v>0.65</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>4</v>
@@ -8094,25 +8162,25 @@
     </row>
     <row r="100" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B100" s="1">
         <v>60</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D100" s="5">
         <v>3321</v>
       </c>
       <c r="E100" s="3">
-        <v>0.62507040000000003</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="F100" s="3">
-        <v>0.60389669999999995</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="G100" s="3">
-        <v>0.64536249999999995</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>4</v>
@@ -8120,25 +8188,25 @@
     </row>
     <row r="101" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B101" s="1">
         <v>65</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D101" s="5">
         <v>3321</v>
       </c>
       <c r="E101" s="3">
-        <v>0.63346959999999997</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="F101" s="3">
-        <v>0.61265720000000001</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="G101" s="3">
-        <v>0.65340410000000004</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>4</v>
@@ -8146,25 +8214,25 @@
     </row>
     <row r="102" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B102" s="1">
         <v>70</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D102" s="5">
         <v>3321</v>
       </c>
       <c r="E102" s="3">
-        <v>0.63313850000000005</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="F102" s="3">
-        <v>0.61231179999999996</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="G102" s="3">
-        <v>0.65308719999999998</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>4</v>
@@ -8172,25 +8240,25 @@
     </row>
     <row r="103" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B103" s="1">
         <v>75</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D103" s="5">
         <v>3321</v>
       </c>
       <c r="E103" s="3">
-        <v>0.63032909999999998</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="F103" s="3">
-        <v>0.60938099999999995</v>
+        <v>0.621</v>
       </c>
       <c r="G103" s="3">
-        <v>0.65039780000000003</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>4</v>
@@ -8198,25 +8266,25 @@
     </row>
     <row r="104" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B104" s="1">
         <v>80</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D104" s="5">
         <v>3321</v>
       </c>
       <c r="E104" s="3">
-        <v>0.63161690000000004</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="F104" s="3">
-        <v>0.61072439999999995</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="G104" s="3">
-        <v>0.65163070000000001</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>4</v>
@@ -8224,25 +8292,25 @@
     </row>
     <row r="105" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B105" s="1">
         <v>85</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D105" s="5">
         <v>3321</v>
       </c>
       <c r="E105" s="3">
-        <v>0.63232999999999995</v>
+        <v>0.64</v>
       </c>
       <c r="F105" s="3">
-        <v>0.61146829999999996</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="G105" s="3">
-        <v>0.65231329999999998</v>
+        <v>0.66</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>4</v>
@@ -8250,25 +8318,25 @@
     </row>
     <row r="106" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B106" s="1">
         <v>90</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D106" s="5">
         <v>3321</v>
       </c>
       <c r="E106" s="3">
-        <v>0.63291459999999999</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="F106" s="3">
-        <v>0.61207809999999996</v>
+        <v>0.622</v>
       </c>
       <c r="G106" s="3">
-        <v>0.65287289999999998</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>4</v>
@@ -8276,25 +8344,25 @@
     </row>
     <row r="107" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B107" s="1">
         <v>95</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D107" s="5">
         <v>3321</v>
       </c>
       <c r="E107" s="3">
-        <v>0.63360490000000003</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="F107" s="3">
-        <v>0.61279830000000002</v>
+        <v>0.624</v>
       </c>
       <c r="G107" s="3">
-        <v>0.65353360000000005</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>4</v>
@@ -8302,25 +8370,25 @@
     </row>
     <row r="108" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B108" s="1">
         <v>100</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D108" s="5">
         <v>3321</v>
       </c>
       <c r="E108" s="3">
-        <v>0.63458150000000002</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="F108" s="3">
-        <v>0.61381719999999995</v>
+        <v>0.625</v>
       </c>
       <c r="G108" s="3">
-        <v>0.6544683</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>4</v>
@@ -8328,25 +8396,25 @@
     </row>
     <row r="109" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B109" s="1">
         <v>105</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D109" s="5">
         <v>3321</v>
       </c>
       <c r="E109" s="3">
-        <v>0.63185910000000001</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="F109" s="3">
-        <v>0.61097699999999999</v>
+        <v>0.627</v>
       </c>
       <c r="G109" s="3">
-        <v>0.65186250000000001</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>4</v>
@@ -8354,25 +8422,25 @@
     </row>
     <row r="110" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B110" s="1">
         <v>110</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D110" s="5">
         <v>3321</v>
       </c>
       <c r="E110" s="3">
-        <v>0.63265229999999995</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="F110" s="3">
-        <v>0.61180449999999997</v>
+        <v>0.628</v>
       </c>
       <c r="G110" s="3">
-        <v>0.65262180000000003</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>4</v>
@@ -8380,25 +8448,25 @@
     </row>
     <row r="111" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B111" s="1">
         <v>115</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D111" s="5">
         <v>3321</v>
       </c>
       <c r="E111" s="3">
-        <v>0.63296200000000002</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="F111" s="3">
-        <v>0.61212759999999999</v>
+        <v>0.628</v>
       </c>
       <c r="G111" s="3">
-        <v>0.65291829999999995</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>4</v>
@@ -8406,25 +8474,25 @@
     </row>
     <row r="112" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B112" s="1">
         <v>120</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D112" s="5">
         <v>3321</v>
       </c>
       <c r="E112" s="3">
-        <v>0.63197709999999996</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="F112" s="3">
-        <v>0.61110010000000003</v>
+        <v>0.629</v>
       </c>
       <c r="G112" s="3">
-        <v>0.65197550000000004</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>4</v>
@@ -8432,25 +8500,25 @@
     </row>
     <row r="113" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B113" s="1">
         <v>20</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D113" s="5">
         <v>3321</v>
       </c>
       <c r="E113" s="3">
-        <v>0.59588529999999995</v>
+        <v>0.629</v>
       </c>
       <c r="F113" s="3">
-        <v>0.57349600000000001</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="G113" s="3">
-        <v>0.61738510000000002</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>4</v>
@@ -8458,25 +8526,25 @@
     </row>
     <row r="114" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B114" s="1">
         <v>25</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D114" s="5">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="E114" s="3">
-        <v>0.61363840000000003</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="F114" s="3">
-        <v>0.59198119999999999</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="G114" s="3">
-        <v>0.63441009999999998</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>4</v>
@@ -8484,25 +8552,25 @@
     </row>
     <row r="115" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B115" s="1">
         <v>30</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D115" s="5">
         <v>3321</v>
       </c>
       <c r="E115" s="3">
-        <v>0.6270964</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="F115" s="3">
-        <v>0.60600940000000003</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="G115" s="3">
-        <v>0.64730270000000001</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>4</v>
@@ -8510,25 +8578,25 @@
     </row>
     <row r="116" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B116" s="1">
         <v>35</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D116" s="5">
         <v>3321</v>
       </c>
       <c r="E116" s="3">
-        <v>0.63749250000000002</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="F116" s="3">
-        <v>0.61685489999999998</v>
+        <v>0.626</v>
       </c>
       <c r="G116" s="3">
-        <v>0.65725409999999995</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>4</v>
@@ -8536,25 +8604,25 @@
     </row>
     <row r="117" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B117" s="1">
         <v>40</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D117" s="5">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="E117" s="3">
-        <v>0.64101560000000002</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="F117" s="3">
-        <v>0.62053210000000003</v>
+        <v>0.625</v>
       </c>
       <c r="G117" s="3">
-        <v>0.66062500000000002</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>4</v>
@@ -8562,25 +8630,25 @@
     </row>
     <row r="118" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B118" s="1">
         <v>45</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D118" s="5">
         <v>3321</v>
       </c>
       <c r="E118" s="3">
-        <v>0.64527440000000003</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="F118" s="3">
-        <v>0.62497840000000005</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="G118" s="3">
-        <v>0.66469869999999998</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>4</v>
@@ -8588,25 +8656,25 @@
     </row>
     <row r="119" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B119" s="1">
         <v>50</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D119" s="5">
         <v>3321</v>
       </c>
       <c r="E119" s="3">
-        <v>0.64929809999999999</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="F119" s="3">
-        <v>0.62918039999999997</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="G119" s="3">
-        <v>0.66854639999999999</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>4</v>
@@ -8614,25 +8682,25 @@
     </row>
     <row r="120" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B120" s="1">
         <v>55</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D120" s="5">
         <v>3321</v>
       </c>
       <c r="E120" s="3">
-        <v>0.65785720000000003</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="F120" s="3">
-        <v>0.63812270000000004</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="G120" s="3">
-        <v>0.67672779999999999</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>4</v>
@@ -8640,25 +8708,25 @@
     </row>
     <row r="121" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B121" s="1">
         <v>60</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D121" s="5">
         <v>3321</v>
       </c>
       <c r="E121" s="3">
-        <v>0.65609170000000006</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="F121" s="3">
-        <v>0.6362778</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="G121" s="3">
-        <v>0.67504070000000005</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>4</v>
@@ -8666,25 +8734,25 @@
     </row>
     <row r="122" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B122" s="1">
         <v>65</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D122" s="5">
         <v>3321</v>
       </c>
       <c r="E122" s="3">
-        <v>0.65629899999999997</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="F122" s="3">
-        <v>0.63649440000000002</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="G122" s="3">
-        <v>0.67523880000000003</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>4</v>
@@ -8692,25 +8760,25 @@
     </row>
     <row r="123" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B123" s="1">
         <v>70</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D123" s="5">
         <v>3321</v>
       </c>
       <c r="E123" s="3">
-        <v>0.66111450000000005</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="F123" s="3">
-        <v>0.64152730000000002</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="G123" s="3">
-        <v>0.67984009999999995</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>4</v>
@@ -8718,25 +8786,25 @@
     </row>
     <row r="124" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B124" s="1">
         <v>75</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D124" s="5">
         <v>3321</v>
       </c>
       <c r="E124" s="3">
-        <v>0.66426529999999995</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="F124" s="3">
-        <v>0.64482130000000004</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="G124" s="3">
-        <v>0.68285010000000002</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>4</v>
@@ -8744,25 +8812,25 @@
     </row>
     <row r="125" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B125" s="1">
         <v>80</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D125" s="5">
         <v>3321</v>
       </c>
       <c r="E125" s="3">
-        <v>0.66924209999999995</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="F125" s="3">
-        <v>0.65002570000000004</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="G125" s="3">
-        <v>0.68760310000000002</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>4</v>
@@ -8770,25 +8838,25 @@
     </row>
     <row r="126" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B126" s="1">
         <v>20</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D126" s="5">
         <v>3321</v>
       </c>
       <c r="E126" s="3">
-        <v>0.71290379999999998</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="F126" s="3">
-        <v>0.69576179999999999</v>
+        <v>0.7</v>
       </c>
       <c r="G126" s="3">
-        <v>0.7292343</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>4</v>
@@ -8796,25 +8864,25 @@
     </row>
     <row r="127" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B127" s="1">
         <v>25</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D127" s="5">
         <v>3321</v>
       </c>
       <c r="E127" s="3">
-        <v>0.71859479999999998</v>
+        <v>0.72</v>
       </c>
       <c r="F127" s="3">
-        <v>0.70173339999999995</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="G127" s="3">
-        <v>0.73465170000000002</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>4</v>
@@ -8822,25 +8890,25 @@
     </row>
     <row r="128" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B128" s="1">
         <v>30</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D128" s="5">
         <v>3321</v>
       </c>
       <c r="E128" s="3">
-        <v>0.72842090000000004</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="F128" s="3">
-        <v>0.71204959999999995</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="G128" s="3">
-        <v>0.74400060000000001</v>
+        <v>0.74</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>4</v>
@@ -8848,25 +8916,25 @@
     </row>
     <row r="129" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B129" s="1">
         <v>35</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D129" s="5">
         <v>3321</v>
       </c>
       <c r="E129" s="3">
-        <v>0.73726769999999997</v>
+        <v>0.73</v>
       </c>
       <c r="F129" s="3">
-        <v>0.72134379999999998</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="G129" s="3">
-        <v>0.75241259999999999</v>
+        <v>0.745</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>4</v>
@@ -8874,25 +8942,25 @@
     </row>
     <row r="130" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B130" s="1">
         <v>40</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D130" s="5">
         <v>3321</v>
       </c>
       <c r="E130" s="3">
-        <v>0.73670919999999995</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="F130" s="3">
-        <v>0.72075679999999998</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="G130" s="3">
-        <v>0.75188169999999999</v>
+        <v>0.746</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>4</v>
@@ -8900,25 +8968,25 @@
     </row>
     <row r="131" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B131" s="1">
         <v>45</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D131" s="5">
         <v>3321</v>
       </c>
       <c r="E131" s="3">
-        <v>0.73784280000000002</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="F131" s="3">
-        <v>0.72194809999999998</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="G131" s="3">
-        <v>0.7529593</v>
+        <v>0.749</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>4</v>
@@ -8926,25 +8994,25 @@
     </row>
     <row r="132" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B132" s="1">
         <v>50</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D132" s="5">
         <v>3321</v>
       </c>
       <c r="E132" s="3">
-        <v>0.73803640000000004</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="F132" s="3">
-        <v>0.72215149999999995</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="G132" s="3">
-        <v>0.75314329999999996</v>
+        <v>0.75</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>4</v>
@@ -8952,25 +9020,25 @@
     </row>
     <row r="133" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B133" s="1">
         <v>55</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D133" s="5">
         <v>3321</v>
       </c>
       <c r="E133" s="3">
-        <v>0.73859200000000003</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="F133" s="3">
-        <v>0.72273549999999998</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="G133" s="3">
-        <v>0.75367139999999999</v>
+        <v>0.752</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>4</v>
@@ -8978,25 +9046,25 @@
     </row>
     <row r="134" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B134" s="1">
         <v>60</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D134" s="5">
         <v>3321</v>
       </c>
       <c r="E134" s="3">
-        <v>0.73820260000000004</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="F134" s="3">
-        <v>0.72232620000000003</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="G134" s="3">
-        <v>0.75330129999999995</v>
+        <v>0.753</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>4</v>
@@ -9004,25 +9072,25 @@
     </row>
     <row r="135" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B135" s="1">
         <v>65</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D135" s="5">
         <v>3321</v>
       </c>
       <c r="E135" s="3">
-        <v>0.7403267</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="F135" s="3">
-        <v>0.7245587</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="G135" s="3">
-        <v>0.75532010000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>4</v>
@@ -9030,25 +9098,25 @@
     </row>
     <row r="136" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B136" s="1">
         <v>70</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D136" s="5">
         <v>3321</v>
       </c>
       <c r="E136" s="3">
-        <v>0.74327399999999999</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="F136" s="3">
-        <v>0.727657</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="G136" s="3">
-        <v>0.75812089999999999</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>4</v>
@@ -9056,58 +9124,59 @@
     </row>
     <row r="137" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B137" s="1">
         <v>75</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D137" s="5">
         <v>3321</v>
       </c>
       <c r="E137" s="3">
-        <v>0.74276180000000003</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="F137" s="3">
-        <v>0.7271185</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="G137" s="3">
-        <v>0.75763420000000004</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B138" s="1">
+      <c r="A138" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B138" s="13">
         <v>80</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D138" s="5">
-        <v>3321</v>
-      </c>
-      <c r="E138" s="3">
-        <v>0.7442801</v>
-      </c>
-      <c r="F138" s="3">
-        <v>0.72871470000000005</v>
-      </c>
-      <c r="G138" s="3">
-        <v>0.7590768</v>
-      </c>
-      <c r="H138" s="1" t="s">
+      <c r="C138" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" s="17">
+        <v>3321</v>
+      </c>
+      <c r="E138" s="14">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="F138" s="14">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="G138" s="14">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="H138" s="13" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>